--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F0DEC-B495-4CDB-A8D9-AB16E1AD2516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8BC88-6A11-4571-8382-3A3EE001AB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1671">
   <si>
     <t>word</t>
   </si>
@@ -4833,6 +4834,273 @@
   </si>
   <si>
     <t>v. 使平息；使满足；使和缓；对……让步；安抚，安慰；绥靖；缓解（难受的感觉）；姑息</t>
+  </si>
+  <si>
+    <t>germane</t>
+  </si>
+  <si>
+    <t>adj. 切题的，紧密相关的 relevant to a subject under consideration: your remark is not germane to the discussion. 你</t>
+  </si>
+  <si>
+    <t>dogmatic</t>
+  </si>
+  <si>
+    <t>adj. （表达观点时）专横的，不容他⼈质疑的 inclined to lay down principles as incontrovertibly true: a dogmatic</t>
+  </si>
+  <si>
+    <t>n. 互给；互惠 the practice of exchanging things with others for mutual benefit, especially privileges granted by one</t>
+  </si>
+  <si>
+    <t>reciprocity</t>
+  </si>
+  <si>
+    <t>offish</t>
+  </si>
+  <si>
+    <t>adj. 冷漠的，疏远的，不平易近⼈的 aloof or distant in manner; not friendly: He was being offish with her. 他对她</t>
+  </si>
+  <si>
+    <t>solitary</t>
+  </si>
+  <si>
+    <t>adj. 单独的，独处的，孤独的 done or existing alone: a solitary man 离群索居者 | a solitary existence 隐居⽣活</t>
+  </si>
+  <si>
+    <t>exculpation</t>
+  </si>
+  <si>
+    <t>n. 开脱；免除罪责 the act or fact of showing or declaring that (someone) is not guilty of wrongdoing: He did not</t>
+  </si>
+  <si>
+    <t>beset</t>
+  </si>
+  <si>
+    <t>v.t. 困扰，使苦恼 (of a problem or difficulty) trouble or threaten persistently: problems besetting the country 使国家</t>
+  </si>
+  <si>
+    <t>slump</t>
+  </si>
+  <si>
+    <t>n. （数量、价格等的）骤降，猛跌 a sudden severe or prolonged fall in the price, value, or amount of something:</t>
+  </si>
+  <si>
+    <t>grandstand</t>
+  </si>
+  <si>
+    <t>v.i. 卖弄，哗众取宠 seek to attract applause or favorable attention from spectators or the media: choose to</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>adj. 情绪变化⽆常的 (of a person) liable to display rapid changes of emotion: a volatile disposition 朝三慕四的脾性</t>
+  </si>
+  <si>
+    <t>heedless</t>
+  </si>
+  <si>
+    <t>adj. 不注意的，掉以轻⼼的 showing a reckless lack of care or attention: be heedless of danger 不注意危险 |</t>
+  </si>
+  <si>
+    <t>noisome</t>
+  </si>
+  <si>
+    <t>adj. 恶臭的 having an extremely offensive smell: a noisome environment 有害的的环境</t>
+  </si>
+  <si>
+    <t>slapdash</t>
+  </si>
+  <si>
+    <t>adj. 马虎的，仓促的，粗制滥造的 done too hurriedly and carelessly: a slapdash revision of this dictionary 这个字</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>adj. （疾病）慢性的，长期的 (of an illness) persisting for a long time or constantly recurring: chronic indigestion 慢</t>
+  </si>
+  <si>
+    <t>overbearing</t>
+  </si>
+  <si>
+    <t>adj. 专横的；傲慢的；盛⽓凌⼈的 unpleasantly or arrogantly domineering: be overbearing in one's relations with</t>
+  </si>
+  <si>
+    <t>decry</t>
+  </si>
+  <si>
+    <t>v.t. 公开谴责，强烈批评 publicly denounce: decry the lowering of standards for graduation from high school 公开</t>
+  </si>
+  <si>
+    <t>quibble</t>
+  </si>
+  <si>
+    <t>v.i. 吹⽑求疵；找岔⼦；（为⼩事）争吵 argue or raise objections about a trivial matter: quibble about/over</t>
+  </si>
+  <si>
+    <t>rectitude</t>
+  </si>
+  <si>
+    <t>n. 操⾏端正，正直 morally correct behavior or thinking; righteousness: spirit of rectitude 正直⽆私的精神 | the</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>v.t. （对⾔论等）加以限制条件 limit or qualify (something) by conditions or exceptions: experts usually hedge their</t>
+  </si>
+  <si>
+    <t>limp</t>
+  </si>
+  <si>
+    <t>v.i. 艰难前⾏，进展缓慢 to proceed with difficulty: The company has somehow managed to limp along despite the</t>
+  </si>
+  <si>
+    <t>paltry</t>
+  </si>
+  <si>
+    <t>adj. 极少的，微不⾜道的 (of an amount) small or meager: a paltry wage 菲薄的⼯资</t>
+  </si>
+  <si>
+    <t>forebear</t>
+  </si>
+  <si>
+    <t>spurn</t>
+  </si>
+  <si>
+    <t>v.t. 蔑视，鄙视，对……不屑⼀顾 reject with disdain or contempt: She spurned their offer. 她对他们的提议嗤之以</t>
+  </si>
+  <si>
+    <t>n. （通常作 one's forebears）祖宗，祖先 an ancestor: One of her forebears murdered someone in a church. 她的</t>
+  </si>
+  <si>
+    <t>bumbling</t>
+  </si>
+  <si>
+    <t>adj. 常出差错的，笨⼿笨脚的 acting in a confused or ineffectual way; incompetent: a big bumbling young fellow 笨</t>
+  </si>
+  <si>
+    <t>conversant</t>
+  </si>
+  <si>
+    <t>adj. 熟悉的；精通的 familiar with or knowledgeable about something: I am not particularly conversant with the new</t>
+  </si>
+  <si>
+    <t>anew</t>
+  </si>
+  <si>
+    <t>adv. 再，再⼀次；重新 in a new or different, typically more positive, way: Please play the tune anew. 请把这⽀曲⼦</t>
+  </si>
+  <si>
+    <t>ramification</t>
+  </si>
+  <si>
+    <t>n. 影响；后果 a consequence of an action or event, especially when complex or unwelcome; a subdivision of a</t>
+  </si>
+  <si>
+    <t>augur</t>
+  </si>
+  <si>
+    <t>v.i. (augur well/badly/ill) 是好（或不好）的预兆 (of an event or circumstance) portend a good or bad outcome: The</t>
+  </si>
+  <si>
+    <t>hone</t>
+  </si>
+  <si>
+    <t>v.t. (通常作 be honed) 磨练，磨砺，提⾼（技艺等）refine or perfect (something) over a period of time: hone one’s</t>
+  </si>
+  <si>
+    <t>prolific</t>
+  </si>
+  <si>
+    <t>adj. 多产的，（艺术家等）作品多的 (of an artist, animal, or person) producing many works: a prolific writer 多产</t>
+  </si>
+  <si>
+    <t>tranquil</t>
+  </si>
+  <si>
+    <t>adj. 平静的；安静的；安宁的 quiet and peaceful: preserve a tranquil mind 保持平静的⼼情 | a tranquil life in the</t>
+  </si>
+  <si>
+    <t>folly</t>
+  </si>
+  <si>
+    <t>n. 愚蠢 lack of good sense; foolishness: an action due to folly 愚蠢所导致的⾏为</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>adj. 温和的，平淡⽆奇的 showing no strong emotions or excitement; not saying anything very interesting: a bland</t>
+  </si>
+  <si>
+    <t>sordid</t>
+  </si>
+  <si>
+    <t>adj. 卑鄙的，下作的 involving ignoble actions and motives; arousing moral distaste and contempt: a sordid affair 可</t>
+  </si>
+  <si>
+    <t>avow</t>
+  </si>
+  <si>
+    <t>v.t. 公开承认；公开声称 assert or confess openly: avow one’s fault 坦率认错 | She avowed that she could not dance.</t>
+  </si>
+  <si>
+    <t>border on</t>
+  </si>
+  <si>
+    <t>phr. v. 近乎于……，⼏乎是……be close to an extreme condition: Their respect for him bordered on reverence. 他们对</t>
+  </si>
+  <si>
+    <t>v.t. 声称；⾃称；假称 appear or claim to be or do something, especially falsely; profess: The book purports to be an</t>
+  </si>
+  <si>
+    <t>accretion</t>
+  </si>
+  <si>
+    <t>n. 增加，积累 the process of growth or increase, typically by the gradual accumulation of additional layers or</t>
+  </si>
+  <si>
+    <t>sensuality</t>
+  </si>
+  <si>
+    <t>n. 感官享受，⾁体享受 the enjoyment, expression, or pursuit of physical, especially sexual, pleasure: the sensuality</t>
+  </si>
+  <si>
+    <t>tortuous</t>
+  </si>
+  <si>
+    <t>adj. 转弯抹⾓的；复杂的，曲折的 excessively lengthy and complex: a tortuous essay ⼀波三折的长⽂ | tortuous</t>
+  </si>
+  <si>
+    <t>impenetrable</t>
+  </si>
+  <si>
+    <t>adj. ⽆法理解的 impossible to understand: an impenetrable mystery 难解之谜 | The novel savors of a certain</t>
+  </si>
+  <si>
+    <t>elicit</t>
+  </si>
+  <si>
+    <t>v.t. 引起，使发出（回应、回答等）to draw forth or bring out: elicit reaction 引起反应 | elicit applause and</t>
+  </si>
+  <si>
+    <t>sleazy</t>
+  </si>
+  <si>
+    <t>adj. 卑鄙的，肮脏的，不道德的 (of a person or situation) sordid, corrupt, or immoral: a sleazy film 低级庸俗的影⽚</t>
+  </si>
+  <si>
+    <t>corollary</t>
+  </si>
+  <si>
+    <t>n. 必然结果，直接结果 a direct or natural consequence or result: Destruction is a corollary of war. 破坏毁灭是战</t>
+  </si>
+  <si>
+    <t>paraphernalia</t>
+  </si>
+  <si>
+    <t>n. 随⾝物品，（活动所需的）装备 miscellaneous articles, especially the equipment needed for a</t>
   </si>
 </sst>
 </file>
@@ -5169,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD822"/>
+  <dimension ref="A1:XFD867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A786" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B822" sqref="B822"/>
+    <sheetView tabSelected="1" topLeftCell="A782" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B816" sqref="B816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11676,6 +11944,366 @@
       </c>
       <c r="B822" t="s">
         <v>1581</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1670</v>
       </c>
     </row>
   </sheetData>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8BC88-6A11-4571-8382-3A3EE001AB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023B8BDB-6409-44AC-9CB1-872FBDC25661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1671">
   <si>
     <t>word</t>
   </si>
@@ -5437,10 +5437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD867"/>
+  <dimension ref="A1:XFD866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B816" sqref="B816"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293:XFD293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7717,4592 +7717,4584 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B293" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B294" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>543</v>
+        <v>66</v>
       </c>
       <c r="B295" t="s">
-        <v>544</v>
+        <v>67</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>66</v>
+        <v>545</v>
       </c>
       <c r="B296" t="s">
-        <v>67</v>
+        <v>546</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>545</v>
-      </c>
       <c r="B297" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>548</v>
+      </c>
       <c r="B298" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B299" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B300" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B301" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B302" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B303" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>558</v>
-      </c>
       <c r="B304" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>562</v>
+      </c>
       <c r="B306" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B307" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B308" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B309" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B310" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B312" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B313" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B314" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B315" t="s">
-        <v>579</v>
+        <v>581</v>
+      </c>
+      <c r="XFD315" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B316" t="s">
-        <v>581</v>
-      </c>
-      <c r="XFD316" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B317" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B318" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B319" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B320" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B321" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B323" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B324" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B325" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B326" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B327" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B328" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B329" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B330" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B331" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B332" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B333" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B334" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B335" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B336" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B337" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B338" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B339" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B340" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B341" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B342" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B343" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B344" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>638</v>
-      </c>
       <c r="B345" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>641</v>
+      </c>
       <c r="B346" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B347" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B348" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B349" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B350" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B351" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B352" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B353" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B354" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B355" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B356" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B357" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B358" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B359" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B360" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B361" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B362" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B363" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B364" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B365" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B366" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B367" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B368" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B369" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B370" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B371" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B372" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B373" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B374" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B375" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B376" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B377" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B378" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B379" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B380" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B381" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B382" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B383" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B384" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B385" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B386" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B387" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B388" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B389" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B390" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B391" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B392" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B393" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B394" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B395" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B396" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B397" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B398" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B399" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B400" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>749</v>
+        <v>371</v>
       </c>
       <c r="B401" t="s">
-        <v>750</v>
+        <v>372</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>371</v>
+        <v>751</v>
       </c>
       <c r="B402" t="s">
-        <v>372</v>
+        <v>752</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B403" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B404" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B405" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>757</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>758</v>
+        <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>404</v>
+        <v>578</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="B408" t="s">
-        <v>579</v>
+        <v>760</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B409" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B410" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B411" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B412" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B413" t="s">
-        <v>768</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B414" t="s">
-        <v>1289</v>
+        <v>771</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B415" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B416" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B417" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B418" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B419" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B420" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>782</v>
+        <v>293</v>
       </c>
       <c r="B421" t="s">
-        <v>783</v>
+        <v>295</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>293</v>
+        <v>784</v>
       </c>
       <c r="B422" t="s">
-        <v>295</v>
+        <v>785</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B423" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B424" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B425" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B426" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B427" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B428" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B429" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B430" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B431" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B432" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B433" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B434" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B435" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B436" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B437" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B438" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B439" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B440" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B441" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B442" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B443" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B444" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B445" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B446" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B447" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B448" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B449" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B450" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B451" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B452" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B453" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B454" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B455" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B456" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B457" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B458" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B459" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B460" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B461" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B462" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B463" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B464" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B465" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B466" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B467" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B468" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B469" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B470" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B471" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>882</v>
+        <v>1273</v>
       </c>
       <c r="B472" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>1273</v>
+        <v>885</v>
       </c>
       <c r="B473" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B474" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B475" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>889</v>
+        <v>701</v>
       </c>
       <c r="B476" t="s">
-        <v>890</v>
+        <v>702</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>701</v>
+        <v>891</v>
       </c>
       <c r="B477" t="s">
-        <v>702</v>
+        <v>892</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B478" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B479" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B480" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B481" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B482" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B483" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B484" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B485" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B486" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B487" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B488" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B489" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B490" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B491" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B492" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B493" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B494" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B495" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B496" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B497" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B498" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B499" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B500" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B501" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B502" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B503" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>943</v>
+        <v>537</v>
       </c>
       <c r="B504" t="s">
-        <v>944</v>
+        <v>538</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>537</v>
+        <v>945</v>
       </c>
       <c r="B505" t="s">
-        <v>538</v>
+        <v>946</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B506" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B507" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B508" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B509" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B510" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B511" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B512" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B513" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B514" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B515" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B516" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B517" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B518" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B519" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B520" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B521" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B522" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B523" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B524" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B525" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B526" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B527" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B528" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B529" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B530" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B531" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B532" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B533" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B534" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B535" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B536" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B537" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B538" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B539" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B540" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B541" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B542" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B543" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B544" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B545" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B546" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B547" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B548" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B549" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B550" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B551" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B552" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B553" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B554" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B555" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B556" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B557" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B558" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B559" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B560" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B561" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B562" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B563" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B564" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B565" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B566" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B567" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B568" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B569" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B570" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B571" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B572" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B573" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B574" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B575" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B576" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B577" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B578" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B579" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B580" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B581" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B582" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B583" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>1108</v>
+        <v>167</v>
       </c>
       <c r="B584" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>167</v>
+        <v>1111</v>
       </c>
       <c r="B585" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B586" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B587" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B588" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>1117</v>
+        <v>1045</v>
       </c>
       <c r="B589" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>1045</v>
+        <v>1120</v>
       </c>
       <c r="B590" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B591" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B592" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B593" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B594" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B595" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B596" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B597" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B598" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B599" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B600" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B601" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B602" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B603" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>1146</v>
+        <v>304</v>
       </c>
       <c r="B604" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>304</v>
+        <v>1149</v>
       </c>
       <c r="B605" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B606" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B607" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B608" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B609" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B610" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B611" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B612" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B613" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B614" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B615" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B616" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B617" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B618" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B619" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B620" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>1179</v>
+        <v>1034</v>
       </c>
       <c r="B621" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>1034</v>
+        <v>1182</v>
       </c>
       <c r="B622" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B623" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B624" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B625" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B626" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B627" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B628" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B629" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B630" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B631" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B632" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B633" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B634" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B635" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B636" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B637" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B638" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B639" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B640" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B641" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>1220</v>
+        <v>128</v>
       </c>
       <c r="B642" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>128</v>
+        <v>1223</v>
       </c>
       <c r="B643" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B644" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B645" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B646" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B647" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B648" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B649" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B650" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B651" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>1239</v>
+        <v>1033</v>
       </c>
       <c r="B652" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>1033</v>
+        <v>1242</v>
       </c>
       <c r="B653" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B654" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B655" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B656" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B657" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B658" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B659" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B660" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B661" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B662" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B663" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B664" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B665" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B666" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B667" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>1270</v>
+        <v>913</v>
       </c>
       <c r="B668" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>913</v>
+        <v>1277</v>
       </c>
       <c r="B669" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B670" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B671" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B672" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B673" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B674" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="B675" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B676" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B677" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B678" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B679" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B680" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B681" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B682" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B683" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B684" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B685" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B686" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B687" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1317</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B689" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B690" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B691" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B692" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B693" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B694" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B695" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B696" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B697" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="B698" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B699" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B700" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B701" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="B702" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B703" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B704" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B705" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B706" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1353</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B707" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B708" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B709" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B710" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="B711" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="B712" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B713" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B714" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B715" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B716" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B717" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B718" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B719" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B720" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>1381</v>
+        <v>354</v>
       </c>
       <c r="B721" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
-        <v>354</v>
+        <v>1384</v>
       </c>
       <c r="B722" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="B723" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B724" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B725" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B726" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B727" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="B728" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B729" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="B730" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B731" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B732" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B733" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B734" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B735" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B736" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B737" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B738" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B739" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="B740" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="B741" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B742" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B743" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B744" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B745" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="B746" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B747" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B748" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="B749" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="B750" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B751" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B752" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B753" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B754" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B755" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B756" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B757" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B758" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B759" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B760" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B761" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B762" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="B763" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B764" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B765" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B766" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B767" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B768" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B769" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="B770" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B771" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B772" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="B773" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B774" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B775" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B776" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B777" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="B778" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="B779" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B780" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B781" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="B782" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="B783" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B784" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="B785" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B786" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B787" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B788" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B789" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B790" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B791" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B792" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B793" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B794" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B795" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B796" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B797" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B798" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B799" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B800" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1542</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B802" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
-        <v>1544</v>
+        <v>283</v>
       </c>
       <c r="B803" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
-        <v>283</v>
+        <v>1547</v>
       </c>
       <c r="B804" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B805" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B806" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B807" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B808" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B809" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B810" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B811" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B812" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="B813" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B814" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B815" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B816" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
-        <v>1571</v>
+        <v>1514</v>
       </c>
       <c r="B817" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
-        <v>1514</v>
+        <v>1574</v>
       </c>
       <c r="B818" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="B819" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B820" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="B821" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B822" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B823" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B824" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B825" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B826" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B827" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B828" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="B829" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B830" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B831" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B832" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B833" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B834" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="B835" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B836" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B837" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B838" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B839" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="B840" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B841" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="B842" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="B843" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B844" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B845" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B846" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="B847" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="B848" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B849" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="B850" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B851" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="B852" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B853" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B854" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="B855" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="B856" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="B857" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
-        <v>1652</v>
+        <v>1050</v>
       </c>
       <c r="B858" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
-        <v>1050</v>
+        <v>1655</v>
       </c>
       <c r="B859" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B860" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="B861" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B862" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="B863" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="B864" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B865" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B866" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A867" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B867" t="s">
         <v>1670</v>
       </c>
     </row>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7A6646-0203-4E57-9245-672A4EB41841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962535A8-9BD8-46BB-9A2D-07812F4F1B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1666">
   <si>
     <t>adj. 装有马刺的；有花距的</t>
   </si>
@@ -910,13 +910,7 @@
     <t>hinder</t>
   </si>
   <si>
-    <t>vi. 成为阻碍</t>
-  </si>
-  <si>
     <t>vt. 阻碍；打扰</t>
-  </si>
-  <si>
-    <t>adj. 后面的</t>
   </si>
   <si>
     <t>debilitate</t>
@@ -5427,10 +5421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD500"/>
+  <dimension ref="A1:XFD495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:XFD500"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5539,7 +5533,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5770,7 +5764,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -5805,7 +5799,7 @@
         <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -5869,7 +5863,7 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -5930,7 +5924,7 @@
         <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -6512,539 +6506,545 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>269</v>
-      </c>
       <c r="B144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>272</v>
+      </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B146" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B150" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>282</v>
-      </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>285</v>
+      </c>
       <c r="B152" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>287</v>
-      </c>
       <c r="B154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>292</v>
+      </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>296</v>
+      </c>
       <c r="B157" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B160" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>298</v>
-      </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>304</v>
+      </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B164" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>310</v>
+      </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B166" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B170" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>316</v>
-      </c>
       <c r="B171" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B173" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>326</v>
+      </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B177" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B178" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B180" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B185" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B186" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B187" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>347</v>
-      </c>
       <c r="B188" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B189" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B190" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B191" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>360</v>
+      </c>
       <c r="B192" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B194" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B195" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>368</v>
-      </c>
       <c r="B199" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>370</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>372</v>
-      </c>
       <c r="B201" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B202" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="B204" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>382</v>
+      </c>
       <c r="B205" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B206" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>385</v>
+      </c>
       <c r="B207" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B208" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B209" t="s">
         <v>391</v>
@@ -7052,2309 +7052,2269 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B211" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B212" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>392</v>
-      </c>
       <c r="B213" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B214" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B215" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>405</v>
+      </c>
       <c r="B217" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>401</v>
-      </c>
       <c r="B218" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="B219" t="s">
-        <v>404</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B220" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B221" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>412</v>
+      </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="B223" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B225" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B226" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B227" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B228" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B229" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B231" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B232" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B234" t="s">
-        <v>431</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>1271</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>433</v>
+        <v>1270</v>
       </c>
       <c r="B236" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B237" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>438</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1271</v>
+        <v>441</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1273</v>
+        <v>443</v>
       </c>
       <c r="B239" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1272</v>
+        <v>445</v>
       </c>
       <c r="B240" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B241" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>443</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
+      </c>
+      <c r="B242" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B243" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B244" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B245" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>451</v>
+        <v>254</v>
       </c>
       <c r="B246" t="s">
-        <v>452</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B247" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B248" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B249" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>463</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B251" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B252" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B253" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B254" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B255" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B256" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>471</v>
-      </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B258" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B259" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>477</v>
-      </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>483</v>
+      </c>
       <c r="B261" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B262" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B263" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>489</v>
+      </c>
       <c r="B264" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B265" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B266" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B267" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B268" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B269" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B270" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B271" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B272" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B273" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B274" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B275" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B276" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B277" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>511</v>
+        <v>393</v>
       </c>
       <c r="B278" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B279" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B280" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B281" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="B282" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B283" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>385</v>
       </c>
       <c r="B284" t="s">
-        <v>523</v>
+        <v>386</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B285" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B286" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B287" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>387</v>
+        <v>536</v>
       </c>
       <c r="B288" t="s">
-        <v>388</v>
+        <v>537</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B289" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>532</v>
+        <v>64</v>
       </c>
       <c r="B290" t="s">
-        <v>533</v>
+        <v>65</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B291" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>538</v>
-      </c>
       <c r="B292" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B293" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>64</v>
+        <v>545</v>
       </c>
       <c r="B294" t="s">
-        <v>65</v>
+        <v>546</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B295" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>549</v>
+      </c>
       <c r="B296" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B297" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B298" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>549</v>
-      </c>
       <c r="B299" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>551</v>
-      </c>
       <c r="B300" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B301" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B302" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>561</v>
+      </c>
       <c r="B303" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>563</v>
+      </c>
       <c r="B304" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B305" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B306" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B307" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B308" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B309" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B310" t="s">
-        <v>570</v>
+        <v>576</v>
+      </c>
+      <c r="XFD310" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B311" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B312" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B313" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B314" t="s">
-        <v>578</v>
-      </c>
-      <c r="XFD314" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B315" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B316" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B317" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B318" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B319" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B320" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B321" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B323" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B324" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B325" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B326" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B327" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B328" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B329" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B330" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B331" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B332" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B333" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B334" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B335" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B336" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B337" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B338" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B339" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>629</v>
-      </c>
       <c r="B340" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B341" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B342" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B343" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>642</v>
+      </c>
       <c r="B344" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B345" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B346" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B347" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B348" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B349" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B350" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B351" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B352" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B353" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B354" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B355" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B356" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B357" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B358" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B359" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B360" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B361" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B362" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B363" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B364" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B365" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B366" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B367" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B368" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B369" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B370" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B371" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B372" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B373" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B374" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B375" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B376" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B377" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B378" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B379" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B380" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B381" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B382" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B383" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B384" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B385" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B386" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B387" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B388" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B389" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B390" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B391" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B392" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B393" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B394" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B395" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>740</v>
+        <v>366</v>
       </c>
       <c r="B396" t="s">
-        <v>741</v>
+        <v>367</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B397" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B398" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B399" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>368</v>
+        <v>752</v>
       </c>
       <c r="B400" t="s">
-        <v>369</v>
+        <v>753</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>748</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>749</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B402" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B403" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B404" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>760</v>
       </c>
       <c r="B405" t="s">
-        <v>402</v>
+        <v>761</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>575</v>
+        <v>762</v>
       </c>
       <c r="B406" t="s">
-        <v>576</v>
+        <v>763</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="B407" t="s">
-        <v>757</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="B408" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B409" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="B410" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B411" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B412" t="s">
-        <v>1286</v>
+        <v>774</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B413" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B414" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>771</v>
+        <v>290</v>
       </c>
       <c r="B415" t="s">
-        <v>772</v>
+        <v>291</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B416" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B417" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B418" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B419" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>290</v>
+        <v>787</v>
       </c>
       <c r="B420" t="s">
-        <v>292</v>
+        <v>788</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="B421" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B422" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="B423" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B424" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="B425" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="B426" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B427" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="B428" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="B429" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="B430" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B431" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="B432" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B433" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B434" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B435" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="B436" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="B437" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B438" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="B439" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B440" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B441" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="B442" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="B443" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B444" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="B445" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="B446" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="B447" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="B448" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="B449" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="B450" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="B451" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="B452" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="B453" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="B454" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="B455" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="B456" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="B457" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="B458" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B459" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="B460" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="B461" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="B462" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="B463" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B464" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="B465" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>874</v>
+        <v>1268</v>
       </c>
       <c r="B466" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="B467" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B468" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B469" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>879</v>
+        <v>696</v>
       </c>
       <c r="B470" t="s">
-        <v>880</v>
+        <v>697</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>1270</v>
+        <v>886</v>
       </c>
       <c r="B471" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B472" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="B473" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B474" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>698</v>
+        <v>894</v>
       </c>
       <c r="B475" t="s">
-        <v>699</v>
+        <v>895</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="B476" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="B477" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="B478" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="B479" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="B480" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="B481" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="B482" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B483" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="B484" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B485" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B486" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="B487" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="B488" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="B489" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="B490" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="B491" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="B492" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="B493" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="B494" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>925</v>
+        <v>1562</v>
       </c>
       <c r="B495" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A496" t="s">
-        <v>928</v>
-      </c>
-      <c r="B496" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A497" t="s">
-        <v>930</v>
-      </c>
-      <c r="B497" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A498" t="s">
-        <v>932</v>
-      </c>
-      <c r="B498" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A499" t="s">
-        <v>934</v>
-      </c>
-      <c r="B499" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A500" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
@@ -9367,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9379,666 +9339,666 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B9" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B14" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B15" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B16" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B17" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B18" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B19" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B22" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B23" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B24" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B25" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B28" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B29" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B30" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B31" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B32" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B33" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B34" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B35" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B36" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B37" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B38" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B39" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B40" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B41" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B42" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B43" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B44" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B45" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B46" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B47" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B48" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B49" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B50" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B51" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B53" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B54" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B55" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B56" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B57" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B58" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B59" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B60" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B61" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B63" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B64" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B65" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B66" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B67" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B68" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B69" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B70" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B71" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B72" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B73" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B74" t="s">
         <v>1087</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B75" t="s">
         <v>1088</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B76" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B77" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B78" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B79" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B80" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B81" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B82" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B83" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -10046,463 +10006,463 @@
         <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B85" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B86" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B87" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B88" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B89" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B90" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B91" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B92" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B93" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B94" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B95" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B96" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B97" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B98" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B99" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B100" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B101" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B102" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B103" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B105" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B106" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B107" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B108" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B109" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B110" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B111" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B112" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B113" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B114" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B115" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B116" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B117" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B118" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B119" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B120" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B121" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B122" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B123" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B124" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B125" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B126" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B127" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B128" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B129" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B130" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B131" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B132" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B133" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B134" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B135" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B136" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B137" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B138" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B139" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B140" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B141" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -10510,1287 +10470,1287 @@
         <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B143" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B144" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B145" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B146" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B147" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B148" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B149" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B150" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B151" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B152" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B153" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B154" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B155" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B156" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B157" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B158" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B159" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B160" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B161" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B162" t="s">
         <v>1257</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B163" t="s">
         <v>1258</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B164" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B165" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B166" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B167" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B168" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B169" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B170" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B171" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B172" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B173" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B174" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B175" t="s">
         <v>1288</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B176" t="s">
         <v>1289</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B177" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B178" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B179" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B180" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B181" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B182" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B183" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B184" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B185" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B186" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B187" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>1314</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B189" t="s">
         <v>1315</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B190" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B191" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B192" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B193" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B194" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B195" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B196" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B197" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B198" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B199" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B200" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B201" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B202" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B203" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B204" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B205" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B207" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B208" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B209" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B210" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B211" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B212" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B213" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B214" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B215" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B216" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B217" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B218" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B219" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B220" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B221" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B222" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B223" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B224" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B225" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B226" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B227" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B228" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B229" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B230" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B231" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B232" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B233" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B234" t="s">
         <v>1405</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B235" t="s">
         <v>1406</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B236" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B237" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B238" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B239" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B240" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B241" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B242" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B243" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B244" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B245" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B246" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B247" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B248" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B249" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B250" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B251" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B252" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B253" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B254" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B255" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B256" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B257" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B258" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B259" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B260" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B261" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B262" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B263" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B264" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B265" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B266" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B267" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B268" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B269" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B270" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B271" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B272" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B273" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B274" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B275" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B276" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B277" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B278" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B279" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B280" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B281" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B282" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B283" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B284" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B285" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B286" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B287" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B288" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B289" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B290" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B291" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B292" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B293" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B294" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B295" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B296" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B297" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B298" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B299" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B300" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B302" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -11798,503 +11758,503 @@
         <v>280</v>
       </c>
       <c r="B303" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B304" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B305" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B306" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B307" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B308" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B309" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B310" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B311" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B312" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B313" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B314" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B315" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B316" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B317" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B318" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B319" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B320" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B321" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B322" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B323" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B324" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B325" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B326" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B327" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B328" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B329" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B330" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B331" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B332" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B333" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B334" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B335" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B336" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B337" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B338" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B339" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B340" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B341" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B342" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B343" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B344" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B345" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B346" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B347" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B348" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B349" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B350" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B351" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B352" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B353" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B354" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B355" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B356" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B357" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B358" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B359" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B360" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B361" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B362" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B363" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B364" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B365" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962535A8-9BD8-46BB-9A2D-07812F4F1B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1461F-0F98-402E-A70C-8FD0D4D48AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1725">
   <si>
     <t>adj. 装有马刺的；有花距的</t>
   </si>
@@ -5085,6 +5085,184 @@
   </si>
   <si>
     <t>n. 随⾝物品，（活动所需的）装备 miscellaneous articles, especially the equipment needed for a</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>adj. 丰富的；足够的；宽敞的</t>
+  </si>
+  <si>
+    <t>paucity</t>
+  </si>
+  <si>
+    <t>n. 缺乏；少数；少量</t>
+  </si>
+  <si>
+    <t>impediment</t>
+  </si>
+  <si>
+    <t>n. 口吃；妨碍；阻止</t>
+  </si>
+  <si>
+    <t>transcending</t>
+  </si>
+  <si>
+    <t>超越</t>
+  </si>
+  <si>
+    <t>nepotistic</t>
+  </si>
+  <si>
+    <t>adj. 裙带关系的；重用亲戚的；任人唯亲的</t>
+  </si>
+  <si>
+    <t>emergent</t>
+  </si>
+  <si>
+    <t>adj. 新兴的；处于发展初期的；[生]露头的，突出的</t>
+  </si>
+  <si>
+    <t>staleness</t>
+  </si>
+  <si>
+    <t>n. 腐败；陈腐；不新鲜；泄气</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>v. 促进；抚育（他人子女一段时间）；收养；把（孩子）交托给养父母</t>
+  </si>
+  <si>
+    <t>convey</t>
+  </si>
+  <si>
+    <t>vt. 传达；运输；让与</t>
+  </si>
+  <si>
+    <t>cordiality</t>
+  </si>
+  <si>
+    <t>n. 热诚；真挚</t>
+  </si>
+  <si>
+    <t>conviviality</t>
+  </si>
+  <si>
+    <t>n. 欢乐；高兴；宴乐；宴饮交际</t>
+  </si>
+  <si>
+    <t>exasperation</t>
+  </si>
+  <si>
+    <t>n. 恼怒；恶化；惹人恼怒的事</t>
+  </si>
+  <si>
+    <t>habitual</t>
+  </si>
+  <si>
+    <t>adj. 习惯的；惯常的；习以为常的</t>
+  </si>
+  <si>
+    <t>presume</t>
+  </si>
+  <si>
+    <t>vt. 假定；推测；擅自；意味着</t>
+  </si>
+  <si>
+    <t>ingenuity</t>
+  </si>
+  <si>
+    <t>n. 心灵手巧，独创性，足智多谋；精巧的装置</t>
+  </si>
+  <si>
+    <t>unassailable</t>
+  </si>
+  <si>
+    <t>adj. 不容置疑的；无懈可击的</t>
+  </si>
+  <si>
+    <t>inattentive</t>
+  </si>
+  <si>
+    <t>adj. 疏忽的；怠慢的；不注意的</t>
+  </si>
+  <si>
+    <t>futile</t>
+  </si>
+  <si>
+    <t>adj. 无用的；无效的；没有出息的；琐细的；不重要的</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>adj. 感染性的；会蔓延的</t>
+  </si>
+  <si>
+    <t>vt. 沉思；注视；思忖；预期</t>
+  </si>
+  <si>
+    <t>arduousness</t>
+  </si>
+  <si>
+    <t>n. 艰难，艰苦，艰辛，奋斗</t>
+  </si>
+  <si>
+    <t>snag</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>n. 前途；预期；景色
+vt. 勘探，勘察</t>
+  </si>
+  <si>
+    <t>hitch</t>
+  </si>
+  <si>
+    <t>n. 暂时的困难，问题，障碍 a temporary interruption or problem: a technical hitch 技术故障 | the plan is not</t>
+  </si>
+  <si>
+    <t>n. 意外的障碍；潜在的困难 an unexpected or hidden obstacle or drawback: The road ahead is littered with snags.</t>
+  </si>
+  <si>
+    <t>upshot</t>
+  </si>
+  <si>
+    <t>n. 结果，结局；要点</t>
+  </si>
+  <si>
+    <t>beneficence</t>
+  </si>
+  <si>
+    <t>n. 善良，⾏善 the quality or state of being beneficent: works of beneficence 善举</t>
+  </si>
+  <si>
+    <t>altruism</t>
+  </si>
+  <si>
+    <t>n. 利他；⽆私 the belief in or practice of disinterested and selfless concern for the well-being of others:</t>
+  </si>
+  <si>
+    <t>regurgitate</t>
+  </si>
+  <si>
+    <t>vi. 回流；回涌；反胃；反刍</t>
+  </si>
+  <si>
+    <t>ephemerality</t>
+  </si>
+  <si>
+    <t>n. 朝生暮死，短命的事物；无常的事物</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>adj. 当时的，同时期的 living or occurring at the same time: The book is based on contemporary accounts of the war.</t>
   </si>
 </sst>
 </file>
@@ -5421,10 +5599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD495"/>
+  <dimension ref="A1:XFD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView topLeftCell="A475" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9317,6 +9495,46 @@
         <v>1563</v>
       </c>
     </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9325,10 +9543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12257,6 +12475,206 @@
         <v>1665</v>
       </c>
     </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1724</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C547">
     <sortCondition ref="C514"/>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1461F-0F98-402E-A70C-8FD0D4D48AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AF44C-D371-46A2-91A8-182D34942E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1725">
-  <si>
-    <t>adj. 装有马刺的；有花距的</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1717">
   <si>
     <t>spurred</t>
   </si>
   <si>
-    <t>v. 鞭策；教唆（spur的过去分词）</t>
-  </si>
-  <si>
-    <t>stymie</t>
-  </si>
-  <si>
     <t>vt. 从中作梗，阻挠；妨碍</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
   </si>
   <si>
     <t>erudite</t>
-  </si>
-  <si>
-    <t>adj. 博学的 有学问的吗</t>
   </si>
   <si>
     <t>mawkish</t>
@@ -1341,12 +1329,6 @@
   </si>
   <si>
     <t>n. 健谈者；善谈者；擅长讲故事的人</t>
-  </si>
-  <si>
-    <t>sentimentalist</t>
-  </si>
-  <si>
-    <t>n. 感伤主义者；多愁善感的人</t>
   </si>
   <si>
     <t>maverick</t>
@@ -2720,12 +2702,6 @@
     <t>vi. 受阻，受扼制；窒息</t>
   </si>
   <si>
-    <t>acquainted</t>
-  </si>
-  <si>
-    <t>adj. 熟识的；知晓的；有知识的</t>
-  </si>
-  <si>
     <t>vividly</t>
   </si>
   <si>
@@ -3224,9 +3200,6 @@
     <t>purport</t>
   </si>
   <si>
-    <t>vt. 声称；意图；意指；打算</t>
-  </si>
-  <si>
     <t>acquired</t>
   </si>
   <si>
@@ -5201,9 +5174,6 @@
     <t>adj. 感染性的；会蔓延的</t>
   </si>
   <si>
-    <t>vt. 沉思；注视；思忖；预期</t>
-  </si>
-  <si>
     <t>arduousness</t>
   </si>
   <si>
@@ -5263,6 +5233,13 @@
   </si>
   <si>
     <t>adj. 当时的，同时期的 living or occurring at the same time: The book is based on contemporary accounts of the war.</t>
+  </si>
+  <si>
+    <t>v. 鞭策；教唆（spur的过去分词）
+adj. 装有马刺的；有花距的</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -5599,10 +5576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD500"/>
+  <dimension ref="A1:XFD494"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B500" sqref="B500"/>
+    <sheetView zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5612,140 +5589,143 @@
     <col min="3" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5841,15 +5821,15 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5857,55 +5837,55 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -5918,48 +5898,45 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>1276</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1285</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
@@ -5977,119 +5954,119 @@
         <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>947</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
       <c r="B48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>110</v>
-      </c>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -6097,166 +6074,169 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -6277,332 +6257,332 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>177</v>
-      </c>
       <c r="B96" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>194</v>
-      </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>198</v>
-      </c>
       <c r="B106" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>200</v>
+      </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>209</v>
+      </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>229</v>
-      </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -6615,365 +6595,365 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
         <v>245</v>
-      </c>
-      <c r="B130" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>250</v>
+      </c>
       <c r="B133" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B136" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B140" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>264</v>
-      </c>
       <c r="B141" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>278</v>
-      </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B152" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>292</v>
-      </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B157" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>304</v>
+      </c>
       <c r="B161" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B163" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B164" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B165" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>316</v>
-      </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B170" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>320</v>
+      </c>
       <c r="B171" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B172" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -6994,496 +6974,496 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B181" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B183" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>347</v>
-      </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>354</v>
+      </c>
       <c r="B188" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B189" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B190" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B191" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B192" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>368</v>
-      </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="B197" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
         <v>372</v>
       </c>
-      <c r="B198" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>34</v>
-      </c>
       <c r="B200" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>376</v>
+      </c>
       <c r="B201" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B202" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>379</v>
+      </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B205" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B206" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B208" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B209" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>392</v>
-      </c>
       <c r="B210" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B211" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B212" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>399</v>
+      </c>
       <c r="B213" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B214" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>401</v>
-      </c>
       <c r="B215" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="B216" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>404</v>
+      </c>
+      <c r="B217" t="s">
         <v>405</v>
       </c>
-      <c r="B217" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="B219" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B220" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B221" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B222" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B223" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B224" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B225" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B226" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B227" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B228" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B229" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>430</v>
+        <v>1262</v>
       </c>
       <c r="B231" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>431</v>
+        <v>1261</v>
       </c>
       <c r="B232" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>433</v>
+      </c>
+      <c r="B233" t="s">
         <v>434</v>
       </c>
-      <c r="B233" t="s">
+    </row>
+    <row r="234" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="B234" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>1271</v>
+        <v>437</v>
       </c>
       <c r="B235" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1270</v>
+        <v>439</v>
       </c>
       <c r="B236" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B237" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>441</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="B238" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B239" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B240" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B241" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="B242" t="s">
-        <v>450</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -7512,276 +7492,276 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>254</v>
+        <v>457</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>458</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B247" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B248" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B249" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B250" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B251" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B252" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>469</v>
-      </c>
       <c r="B253" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B254" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B255" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>475</v>
-      </c>
       <c r="B256" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>477</v>
+      </c>
       <c r="B257" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B258" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B259" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>483</v>
+      </c>
       <c r="B260" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B261" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B262" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B263" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B264" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B265" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B266" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B267" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B268" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B269" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B270" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B271" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B272" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B273" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="B274" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B275" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B276" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B277" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>518</v>
       </c>
       <c r="B278" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B279" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>520</v>
+        <v>381</v>
       </c>
       <c r="B280" t="s">
-        <v>521</v>
+        <v>382</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -7802,34 +7782,34 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B283" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>385</v>
+        <v>530</v>
       </c>
       <c r="B284" t="s">
-        <v>386</v>
+        <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B285" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="B286" t="s">
-        <v>531</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -7841,70 +7821,64 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
+      <c r="B288" t="s">
         <v>536</v>
-      </c>
-      <c r="B288" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>537</v>
+      </c>
+      <c r="B289" t="s">
         <v>538</v>
-      </c>
-      <c r="B289" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>64</v>
+        <v>539</v>
       </c>
       <c r="B290" t="s">
-        <v>65</v>
+        <v>540</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B291" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>543</v>
+      </c>
       <c r="B292" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B293" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B294" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>547</v>
-      </c>
       <c r="B295" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>549</v>
-      </c>
       <c r="B296" t="s">
         <v>550</v>
       </c>
@@ -7926,112 +7900,118 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>555</v>
+      </c>
       <c r="B299" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>557</v>
+      </c>
       <c r="B300" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B301" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B302" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B303" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B304" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="305" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B305" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="306" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B306" t="s">
-        <v>568</v>
+        <v>570</v>
+      </c>
+      <c r="XFD306" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="307" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B307" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="308" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B308" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="309" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B309" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="310" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B310" t="s">
-        <v>576</v>
-      </c>
-      <c r="XFD310" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B311" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="312" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B312" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="313" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
@@ -8039,529 +8019,529 @@
         <v>581</v>
       </c>
       <c r="B313" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="314" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B314" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="315" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B315" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="316" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B316" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="317" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B317" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="318" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B318" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="319" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B319" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="320" spans="1:2 16384:16384" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B320" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B321" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B322" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B323" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B324" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B325" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B326" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B327" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B328" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B329" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B330" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B331" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B332" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B334" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B335" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>627</v>
-      </c>
       <c r="B336" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B337" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B338" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B339" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>636</v>
+      </c>
       <c r="B340" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B341" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B342" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B343" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B344" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B345" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B346" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B347" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B348" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B349" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B350" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B351" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B352" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B353" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B354" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B355" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B356" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B357" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B358" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B359" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B360" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B361" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B362" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B363" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B364" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B365" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B366" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B367" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B368" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B369" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B370" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B371" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B372" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B373" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B374" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B375" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B376" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B377" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B378" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B379" t="s">
         <v>715</v>
@@ -8569,106 +8549,106 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B380" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B381" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B382" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B383" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B384" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B385" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B386" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B387" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B388" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B389" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B390" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B391" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>738</v>
+        <v>362</v>
       </c>
       <c r="B392" t="s">
-        <v>739</v>
+        <v>363</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
@@ -8697,18 +8677,18 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>366</v>
+        <v>746</v>
       </c>
       <c r="B396" t="s">
-        <v>367</v>
+        <v>747</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>746</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>747</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
@@ -8737,90 +8717,90 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>754</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>755</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B402" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B403" t="s">
-        <v>757</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B404" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B405" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B406" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B407" t="s">
-        <v>1284</v>
+        <v>766</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B408" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B409" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B410" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>771</v>
+        <v>286</v>
       </c>
       <c r="B411" t="s">
-        <v>772</v>
+        <v>287</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
@@ -8849,66 +8829,66 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>290</v>
+        <v>779</v>
       </c>
       <c r="B415" t="s">
-        <v>291</v>
+        <v>780</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B416" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B417" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B418" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B419" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B420" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B421" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B422" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
@@ -8921,18 +8901,18 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B424" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B425" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
@@ -8945,18 +8925,18 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B427" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B428" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
@@ -8964,575 +8944,527 @@
         <v>805</v>
       </c>
       <c r="B429" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B430" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B431" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B432" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B433" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B434" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B435" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B436" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B437" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B438" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B439" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B440" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B441" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B442" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B443" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B444" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B445" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B446" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B447" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B448" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B449" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B450" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B451" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B452" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B453" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B454" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B455" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B456" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="B457" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B458" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B459" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B460" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
+        <v>871</v>
+      </c>
+      <c r="B461" t="s">
         <v>872</v>
-      </c>
-      <c r="B461" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>870</v>
+        <v>1259</v>
       </c>
       <c r="B462" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B463" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B464" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B465" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>1268</v>
+        <v>880</v>
       </c>
       <c r="B466" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B467" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B468" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B469" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>696</v>
+        <v>888</v>
       </c>
       <c r="B470" t="s">
-        <v>697</v>
+        <v>889</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B471" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="B472" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B473" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B474" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B475" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="B476" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B477" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B478" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B479" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B480" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B481" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="B482" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B483" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B484" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B485" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B486" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B487" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B488" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>922</v>
+        <v>1553</v>
       </c>
       <c r="B489" t="s">
-        <v>924</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>923</v>
+        <v>1657</v>
       </c>
       <c r="B490" t="s">
-        <v>925</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>926</v>
+        <v>1659</v>
       </c>
       <c r="B491" t="s">
-        <v>927</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>928</v>
+        <v>1661</v>
       </c>
       <c r="B492" t="s">
-        <v>929</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>930</v>
+        <v>1663</v>
       </c>
       <c r="B493" t="s">
-        <v>931</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>932</v>
+        <v>1665</v>
       </c>
       <c r="B494" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A495" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A496" t="s">
         <v>1666</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A497" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A498" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A499" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A500" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1675</v>
       </c>
     </row>
   </sheetData>
@@ -9543,10 +9475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B390"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9557,3127 +9489,3111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B1" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B2" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B3" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B5" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B6" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B8" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B9" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B10" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B11" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B12" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B13" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B14" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B15" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B16" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B17" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B18" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B19" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B20" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B21" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B22" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B23" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B24" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B25" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B26" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B27" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B28" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B29" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B30" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B31" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B32" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B33" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="B34" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="B35" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="B36" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B37" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B38" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B39" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="B40" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B42" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B43" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B44" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B45" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B46" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B47" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B48" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B49" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="B50" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="B51" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B52" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B53" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B54" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B55" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B56" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B57" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B58" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B59" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="B60" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B61" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B62" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B63" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B64" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="B65" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B66" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B67" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B68" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B69" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B70" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B71" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B72" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B73" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="B74" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B75" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B76" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B77" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B78" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B79" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B80" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B81" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B82" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1103</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>1097</v>
       </c>
       <c r="B84" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B85" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="B86" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B87" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1112</v>
+        <v>1032</v>
       </c>
       <c r="B88" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1040</v>
+        <v>1106</v>
       </c>
       <c r="B89" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B90" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B91" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="B92" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="B93" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B94" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="B95" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B96" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="B97" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B98" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B99" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="B100" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="B101" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="B102" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1141</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>299</v>
+        <v>1135</v>
       </c>
       <c r="B104" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B105" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="B106" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="B107" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="B108" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B109" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="B110" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="B111" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="B112" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="B113" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B114" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B115" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B116" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B117" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B118" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B119" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1174</v>
+        <v>1021</v>
       </c>
       <c r="B120" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1029</v>
+        <v>1168</v>
       </c>
       <c r="B121" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B122" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B123" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B124" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B125" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B126" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B127" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B128" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="B129" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B130" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B131" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B132" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B133" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B134" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B135" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B136" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B137" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B138" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B139" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B140" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1215</v>
+        <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>1209</v>
       </c>
       <c r="B142" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="B143" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="B144" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="B145" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="B146" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="B147" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="B148" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="B149" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="B150" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1234</v>
+        <v>1020</v>
       </c>
       <c r="B151" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>1028</v>
+        <v>1228</v>
       </c>
       <c r="B152" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="B153" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="B154" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="B155" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="B156" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="B157" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="B158" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="B159" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="B160" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="B161" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="B162" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B163" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="B164" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="B165" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="B166" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1265</v>
+        <v>900</v>
       </c>
       <c r="B167" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>908</v>
+        <v>1263</v>
       </c>
       <c r="B168" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="B169" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="B170" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="B171" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="B172" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="B173" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B174" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="B175" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B176" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="B177" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="B178" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="B179" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="B180" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="B181" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="B182" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="B183" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="B184" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="B185" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="B186" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>1303</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1314</v>
+        <v>1304</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B189" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="B190" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="B191" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="B192" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="B193" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B194" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="B195" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="B196" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="B197" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="B198" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="B199" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B200" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="B201" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="B202" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="B203" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="B204" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>1339</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1349</v>
+        <v>1341</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="B207" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="B208" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="B209" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="B210" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="B211" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="B212" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="B213" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="B214" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="B215" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="B216" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="B217" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="B218" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="B219" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1376</v>
+        <v>345</v>
       </c>
       <c r="B220" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>349</v>
+        <v>1370</v>
       </c>
       <c r="B221" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="B222" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="B223" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="B224" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="B225" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="B226" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="B227" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="B228" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="B229" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="B230" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="B231" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="B232" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="B233" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="B234" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B235" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="B236" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="B237" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="B238" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="B239" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B240" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="B241" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="B242" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="B243" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="B244" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="B245" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="B246" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="B247" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="B248" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="B249" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="B250" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="B251" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="B252" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="B253" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="B254" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="B255" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="B256" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="B257" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="B258" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="B259" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="B260" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="B261" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="B262" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="B263" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="B264" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="B265" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="B266" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="B267" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="B268" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="B269" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="B270" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="B271" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="B272" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="B273" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="B274" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="B275" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="B276" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="B277" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="B278" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="B279" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="B280" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="B281" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="B282" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="B283" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="B284" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="B285" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="B286" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="B287" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="B288" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="B289" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="B290" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="B291" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="B292" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="B293" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="B294" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="B295" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="B296" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="B297" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="B298" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="B299" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1528</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>1538</v>
+        <v>1530</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1539</v>
+        <v>276</v>
       </c>
       <c r="B302" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>280</v>
+        <v>1533</v>
       </c>
       <c r="B303" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="B304" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="B305" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="B306" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="B307" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="B308" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="B309" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="B310" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="B311" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="B312" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="B313" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="B314" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1566</v>
+        <v>1500</v>
       </c>
       <c r="B315" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1509</v>
+        <v>1560</v>
       </c>
       <c r="B316" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="B317" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="B318" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="B319" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="B320" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="B321" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="B322" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="B323" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="B324" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="B325" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="B326" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="B327" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="B328" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="B329" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="B330" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="B331" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="B332" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B333" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="B334" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B335" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="B336" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="B337" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="B338" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="B339" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B340" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="B341" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B342" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="B343" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="B344" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="B345" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="B346" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="B347" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="B348" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="B349" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="B350" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="B351" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B352" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="B353" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="B354" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="B355" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1647</v>
+        <v>1037</v>
       </c>
       <c r="B356" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>1045</v>
+        <v>1641</v>
       </c>
       <c r="B357" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="B358" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="B359" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="B360" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="B361" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="B362" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="B363" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="B364" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="B365" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="B366" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="B367" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="B368" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="B369" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="B370" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="B371" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="B372" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="B373" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="B374" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="B375" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="B376" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="B377" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="B378" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="B379" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>1249</v>
+        <v>1697</v>
       </c>
       <c r="B380" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1706</v>
+        <v>1698</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="B382" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>1709</v>
+        <v>1703</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="B384" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="B385" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="B386" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B387" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="B388" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C547">
-    <sortCondition ref="C514"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C545">
+    <sortCondition ref="C512"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AF44C-D371-46A2-91A8-182D34942E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58594A27-667C-4B80-BF97-0C3532C93178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1856">
   <si>
     <t>spurred</t>
   </si>
@@ -2081,9 +2081,6 @@
     <t>innocuously</t>
   </si>
   <si>
-    <t>adv. 无害地；无毒地</t>
-  </si>
-  <si>
     <t>commence</t>
   </si>
   <si>
@@ -5240,6 +5237,431 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>whimsical</t>
+  </si>
+  <si>
+    <t>adj. ⼼⾎来潮的；头脑发热的 acting or behaving in a capricious manner: in whimsical moments ⼼⾎
+adj. 古怪的；异想天开的；反复无常的</t>
+  </si>
+  <si>
+    <t>vitiate</t>
+  </si>
+  <si>
+    <t>v.t. 损害（……的质量或效果），破坏，削弱 spoil or impair the quality or efficiency of: Development programs</t>
+  </si>
+  <si>
+    <t>impugn</t>
+  </si>
+  <si>
+    <t>v.t. 质疑，批评 dispute the truth, validity, or honesty of (a statement or motive); call into question: impugn the</t>
+  </si>
+  <si>
+    <t>impertinent</t>
+  </si>
+  <si>
+    <t>adj. ⽆礼的，冒昧的 not showing proper respect; rude: an impertinent question ⽆礼的提问</t>
+  </si>
+  <si>
+    <t>adj. ⽆伤⼤雅的；不得罪（或冒犯）⼈的 not likely to give offense or to arouse strong feelings or hostility ;</t>
+  </si>
+  <si>
+    <t>galling</t>
+  </si>
+  <si>
+    <t>adj. 使⼈恼怒的；使⼈烦恼的；使⼈感到屈辱的 annoying; humiliating: make galling remarks 出⼜伤</t>
+  </si>
+  <si>
+    <t>preachy</t>
+  </si>
+  <si>
+    <t>adj. 讲道似的；带有说教意味的，说教性的 trying to give advice or to persuade people to accept an opinion on</t>
+  </si>
+  <si>
+    <t>querulous</t>
+  </si>
+  <si>
+    <t>adj. 抱怨的；爱发牢骚的；爱发脾⽓的 complaining in a petulant or whining manner: a querulous remark 牢骚话 |</t>
+  </si>
+  <si>
+    <t>pious</t>
+  </si>
+  <si>
+    <t>adj. （对宗教）虔诚的 deeply religious: a pious woman who attends church services regularly 定期去教堂做礼拜的</t>
+  </si>
+  <si>
+    <t>plaintive</t>
+  </si>
+  <si>
+    <t>adj. （声⾳）悲伤的，哀怨的 sounding sad, especially in a weak complaining way: the plaintive cries of the child 孩</t>
+  </si>
+  <si>
+    <t>intrepid</t>
+  </si>
+  <si>
+    <t>adj. 勇敢的；⽆畏的 very brave; not afraid of danger or difficulties: an intrepid fighter ⽆畏的战⼠ | an intrepid</t>
+  </si>
+  <si>
+    <t>advocacy</t>
+  </si>
+  <si>
+    <t>n. 拥护；提倡；主张 public support for or recommendation of a particular cause or policy: sb. 's</t>
+  </si>
+  <si>
+    <t>preface</t>
+  </si>
+  <si>
+    <t>n. 前言；引语
+vt. 为…加序言；以…开始
+vi. 作序</t>
+  </si>
+  <si>
+    <t>clamorous</t>
+  </si>
+  <si>
+    <t>adj. 吵闹的，喧嚷的 making a loud and confused noise: the busy clamorous market 繁忙喧闹的市场</t>
+  </si>
+  <si>
+    <t>invidious</t>
+  </si>
+  <si>
+    <t>adj. 引⼈不满的，引⼈反感的，招⼈嫉妒的 (of an action or situation) likely to arouse or incur resentment or anger</t>
+  </si>
+  <si>
+    <t>sonorous</t>
+  </si>
+  <si>
+    <t>adj. 响亮的；作响的；能发出响亮声音的</t>
+  </si>
+  <si>
+    <t>salutary</t>
+  </si>
+  <si>
+    <t>adj. 有益的，有利的 (especially with reference to something unwelcome or unpleasant) producing good effects;</t>
+  </si>
+  <si>
+    <t>momentary</t>
+  </si>
+  <si>
+    <t>adj. ⽚刻的，瞬息的；短暂的 lasting for a very short time: There was a momentary pause. 停顿了⽚刻。 | a</t>
+  </si>
+  <si>
+    <t>enduring</t>
+  </si>
+  <si>
+    <t>adj. 持久的，持续的 continuing or long-lasting: an enduring problem ⼀个持久的问题</t>
+  </si>
+  <si>
+    <t>inertial</t>
+  </si>
+  <si>
+    <t>adj. 惰性的，惯性的 relating to or arising from inertia: inertial force 惯性⼒</t>
+  </si>
+  <si>
+    <t>opprobrious</t>
+  </si>
+  <si>
+    <t>adj. 蔑视的；辱骂的 (or language) expressing scorn or criticism: opprobrious language 骂⼈的话</t>
+  </si>
+  <si>
+    <t>platitudinous</t>
+  </si>
+  <si>
+    <t>adj. 陈词滥调的 (of a remark or statement) used too often to be interesting or thoughtful; hackneyed: platitudinous</t>
+  </si>
+  <si>
+    <t>supercilious</t>
+  </si>
+  <si>
+    <t>adj. ⾼傲的，轻蔑的 behaving or looking as though one thinks one is superior to others: There was none of the</t>
+  </si>
+  <si>
+    <t>discernment</t>
+  </si>
+  <si>
+    <t>n. 洞察⼒；敏锐，精明 the ability to judge well: The errors of youth often proceed from the want</t>
+  </si>
+  <si>
+    <t>austere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 严厉的，严肃的 severe or strict in manner, attitude, or appearance: an austere expression 严肃的表情
+adj. 极为朴素的，毫⽆装饰的 having an extremely plain and simple style or appearance; unadorned: an austere style </t>
+  </si>
+  <si>
+    <t>n. 极度朴素，极为严肃 the quality or state of being austere: the austerity of the design 设计极为简朴</t>
+  </si>
+  <si>
+    <t>brook</t>
+  </si>
+  <si>
+    <t>v.t. [⽤于否定句] 容忍，忍受；容许 tolerate or allow: He cannot brook interference. 他不能容忍他⼈的⼲涉。 |</t>
+  </si>
+  <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>vt. 权衡；考虑；称…重量</t>
+  </si>
+  <si>
+    <t>archetypal</t>
+  </si>
+  <si>
+    <t>adj. 典型的 very typical of a certain kind of person or thing: His father was the archetypal of the middle class. 他⽗亲</t>
+  </si>
+  <si>
+    <t>incendiary</t>
+  </si>
+  <si>
+    <t>adj. 煽动性的 tending to stir up conflict: incendiary remarks 煽动性⾔论</t>
+  </si>
+  <si>
+    <t>surreptitious</t>
+  </si>
+  <si>
+    <t>adj. ⿁⿁祟祟的，偷偷摸摸的 done in a secret way: a surreptitious glance 偷偷的⼀瞥 | a surreptitious hope 私下的</t>
+  </si>
+  <si>
+    <t>vexatious</t>
+  </si>
+  <si>
+    <t>adj. 令⼈恼⽕的；令⼈苦恼的；令⼈伤脑筋的 causing or tending to cause annoyance, frustration,</t>
+  </si>
+  <si>
+    <t>obfuscate</t>
+  </si>
+  <si>
+    <t>v.t. 使混乱，使难懂，使不清楚 render obscure, unclear, or unintelligible: obfuscate the issue 使问题变混乱</t>
+  </si>
+  <si>
+    <t>mystify</t>
+  </si>
+  <si>
+    <t>v.t. 使显得神秘，使费解 make obscure or mysterious: mystify the legal system so that laymen find it unintelligible 将</t>
+  </si>
+  <si>
+    <t>canned</t>
+  </si>
+  <si>
+    <t>adj. ⽼套的，千篇⼀律的，毫⽆新意的 lacking originality or individuality as if mass-produced: canned phrases 陈</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>adj. 沉闷的；冗长乏味的 ***不是繁琐的</t>
+  </si>
+  <si>
+    <t>spirited</t>
+  </si>
+  <si>
+    <t>adj. 精神饱满的，⽣⽓勃勃的 full of energy, enthusiasm, and determination: a spirited discussion 热烈的讨论 | a</t>
+  </si>
+  <si>
+    <t>rehabilitate</t>
+  </si>
+  <si>
+    <t>v.t. 使康复，使复原 to restore or bring to a condition of health or useful and constructive activity: He's still</t>
+  </si>
+  <si>
+    <t>unerring</t>
+  </si>
+  <si>
+    <t>adj. 不犯错误的；不出差错的 always right or accurate: With unerring judgment he threw the ball</t>
+  </si>
+  <si>
+    <t>dovish</t>
+  </si>
+  <si>
+    <t>adj. 鸽派的，爱好和平的 preferring to use peaceful discussion rather than military action in order to solve a political</t>
+  </si>
+  <si>
+    <t>acclaim</t>
+  </si>
+  <si>
+    <t>v.t. 向…欢呼；为…喝彩；称赞 praise enthusiastically and publicly: acclaim the heroes 向英雄们欢呼 | a book</t>
+  </si>
+  <si>
+    <t>meld</t>
+  </si>
+  <si>
+    <t>v.t. 混合 blend; combine: Australia's winemakers have melded modern science with traditional art. 澳⼤利亚的红酒</t>
+  </si>
+  <si>
+    <t>spearhead</t>
+  </si>
+  <si>
+    <t>v.t. 领先突击，带头 lead (an attack or movement): He’s spearheading a compaign to reduce the number of accidents</t>
+  </si>
+  <si>
+    <t>trepidation</t>
+  </si>
+  <si>
+    <t>n. 害怕，不安，惊慌 a feeling of fear or agitation about something that may happen: trepidation about starting a</t>
+  </si>
+  <si>
+    <t>apprehension</t>
+  </si>
+  <si>
+    <t>n. 担忧，忧虑，焦虑 anxiety or fear that something bad or unpleasant will happen: I picked up the phone with</t>
+  </si>
+  <si>
+    <t>tenacity</t>
+  </si>
+  <si>
+    <t>n. 坚定，顽强 the quality or fact of being very determined; determination: a tenacity of purpose ⽬标的</t>
+  </si>
+  <si>
+    <t>invective</t>
+  </si>
+  <si>
+    <t>n. 痛骂，辱骂，猛烈抨击 insulting, abusive, or highly critical language: face the torrent of invective ⾯对⼀顿痛</t>
+  </si>
+  <si>
+    <t>dispersal</t>
+  </si>
+  <si>
+    <t>n. 分布，分散，传播 the action or process of distributing things or people over a wide area: the</t>
+  </si>
+  <si>
+    <t>disperse</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>v.i.&amp;v.t. 使散布；使分散；传播 distribute or spread over a wide area: Police dispersed the protesters. 警察驱散了⽰威</t>
+  </si>
+  <si>
+    <t>n. 取代，位移；[船] 排水量</t>
+  </si>
+  <si>
+    <t>ostensibly</t>
+  </si>
+  <si>
+    <t>adv. 表面上；外表</t>
+  </si>
+  <si>
+    <t>candor</t>
+  </si>
+  <si>
+    <t>n. 坦率；坦诚；真诚 the quality of being open and honest in expression; frankness: He expressed his views with</t>
+  </si>
+  <si>
+    <t>sensationalism</t>
+  </si>
+  <si>
+    <t>n. （新闻报道等）刻意追求轰动效应；耸⼈听闻 (especially in journalism) the use of</t>
+  </si>
+  <si>
+    <t>oracular</t>
+  </si>
+  <si>
+    <t>adj. ⽞妙深奥的，难以理解的 hard to interpret; enigmatic: oracular remarks 隐晦难懂的话</t>
+  </si>
+  <si>
+    <t>prophetic</t>
+  </si>
+  <si>
+    <t>adj. 预⾔的；预⽰的 accurately describing or predicting what will happen in the future: a prophetic saying ⼀则预⾔</t>
+  </si>
+  <si>
+    <t>auspicious</t>
+  </si>
+  <si>
+    <t>adj. 顺利的，有利的 conducive to success; favorable: made an auspicious beginning 取得开门红</t>
+  </si>
+  <si>
+    <t>inauspicious</t>
+  </si>
+  <si>
+    <t>adj. 不顺利的，不利的 not conducive to success; unpromising: The meeting was inauspicious. 那</t>
+  </si>
+  <si>
+    <t>annihilates</t>
+  </si>
+  <si>
+    <t>v.t. 彻底消灭 destroy utterly; obliterate: The militiamen annihilated the intruders to the last man. 民兵把⼊侵者⼀个</t>
+  </si>
+  <si>
+    <t>trivia</t>
+  </si>
+  <si>
+    <t>n. 微不⾜道的信息，琐事 details, considerations, or pieces of information of little importance or value: I</t>
+  </si>
+  <si>
+    <t>extenuate</t>
+  </si>
+  <si>
+    <t>v.t. 减轻（罪⾏等），为（罪⾏）辩解 make (guilt or an offense) seem less serious or more forgivable: We must not</t>
+  </si>
+  <si>
+    <t>sluggish</t>
+  </si>
+  <si>
+    <t>adj. 缓慢的，慢的 slow-moving or inactive: a sluggish stream ⽔流缓慢的⼩溪 | Britain’s population growth is now</t>
+  </si>
+  <si>
+    <t>divisive</t>
+  </si>
+  <si>
+    <t>adj. 造成不和的；引起分歧的；制造分裂的 tending to cause disagreement or hostility between people: a divisive</t>
+  </si>
+  <si>
+    <t>derivative</t>
+  </si>
+  <si>
+    <t>adj. 派⽣的；衍⽣的 made up of or marked by derived elements: a derivative term 派⽣词
+adj. ⽼套的，没有新意的 lacking originality ; banal: a highly derivative prose style 毫⽆创意的散⽂风格</t>
+  </si>
+  <si>
+    <t>condescending</t>
+  </si>
+  <si>
+    <t>adj. 有优越感的，居⾼临下的，⾃认为⾼⼈⼀等的 having or showing a feeling of patronizing superiority: She is</t>
+  </si>
+  <si>
+    <t>malfeasance</t>
+  </si>
+  <si>
+    <t>n. （尤指公务⼈员的）违法⾏为；渎职 wrongdoing, especially by a public official: be guilty of malfeasance 犯渎</t>
+  </si>
+  <si>
+    <t>fraudulence</t>
+  </si>
+  <si>
+    <t>n. 欺诈；欺骗性</t>
+  </si>
+  <si>
+    <t>capriciousness</t>
+  </si>
+  <si>
+    <t>n. 变幻莫测，变化无常</t>
+  </si>
+  <si>
+    <t>hysteria</t>
+  </si>
+  <si>
+    <t>n. 歇斯底⾥，情绪失控 exaggerated or uncontrollable emotion or excitement, especially among a group of people:</t>
+  </si>
+  <si>
+    <t>meteoric</t>
+  </si>
+  <si>
+    <t>adj. （发展进程）极快的，飞⼀般的 (of the development of something, especially a person's career) very rapid: a</t>
+  </si>
+  <si>
+    <t>vilify</t>
+  </si>
+  <si>
+    <t>v.t. 污蔑，诋毁，中伤 speak or write about in an abusively disparaging manner: vilify sb.’s character 污蔑某⼈的⼈</t>
+  </si>
+  <si>
+    <t>aggrieved</t>
+  </si>
+  <si>
+    <t>adj. 愤愤不平的，感到受不公正对待的 feeling resentment at having been unfairly treated: What’s he looking so</t>
   </si>
 </sst>
 </file>
@@ -5576,10 +5998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD494"/>
+  <dimension ref="A1:XFD501"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5594,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5683,7 +6105,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5898,7 +6320,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
@@ -5933,7 +6355,7 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5997,7 +6419,7 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -6058,7 +6480,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -7367,12 +7789,12 @@
         <v>430</v>
       </c>
       <c r="B230" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B231" t="s">
         <v>431</v>
@@ -7380,7 +7802,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B232" t="s">
         <v>432</v>
@@ -8352,295 +8774,295 @@
         <v>666</v>
       </c>
       <c r="B355" t="s">
-        <v>667</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
+        <v>667</v>
+      </c>
+      <c r="B356" t="s">
         <v>668</v>
-      </c>
-      <c r="B356" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
+        <v>669</v>
+      </c>
+      <c r="B357" t="s">
         <v>670</v>
-      </c>
-      <c r="B357" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
+        <v>671</v>
+      </c>
+      <c r="B358" t="s">
         <v>672</v>
-      </c>
-      <c r="B358" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
+        <v>673</v>
+      </c>
+      <c r="B359" t="s">
         <v>674</v>
-      </c>
-      <c r="B359" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
+        <v>675</v>
+      </c>
+      <c r="B360" t="s">
         <v>676</v>
-      </c>
-      <c r="B360" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
+        <v>677</v>
+      </c>
+      <c r="B361" t="s">
         <v>678</v>
-      </c>
-      <c r="B361" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
+        <v>679</v>
+      </c>
+      <c r="B362" t="s">
         <v>680</v>
-      </c>
-      <c r="B362" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
+        <v>681</v>
+      </c>
+      <c r="B363" t="s">
         <v>682</v>
-      </c>
-      <c r="B363" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
+        <v>683</v>
+      </c>
+      <c r="B364" t="s">
         <v>684</v>
-      </c>
-      <c r="B364" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
+        <v>685</v>
+      </c>
+      <c r="B365" t="s">
         <v>686</v>
-      </c>
-      <c r="B365" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
+        <v>687</v>
+      </c>
+      <c r="B366" t="s">
         <v>688</v>
-      </c>
-      <c r="B366" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
+        <v>689</v>
+      </c>
+      <c r="B367" t="s">
         <v>690</v>
-      </c>
-      <c r="B367" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
+        <v>691</v>
+      </c>
+      <c r="B368" t="s">
         <v>692</v>
-      </c>
-      <c r="B368" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
+        <v>693</v>
+      </c>
+      <c r="B369" t="s">
         <v>694</v>
-      </c>
-      <c r="B369" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
+        <v>695</v>
+      </c>
+      <c r="B370" t="s">
         <v>696</v>
-      </c>
-      <c r="B370" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
+        <v>697</v>
+      </c>
+      <c r="B371" t="s">
         <v>698</v>
-      </c>
-      <c r="B371" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
+        <v>699</v>
+      </c>
+      <c r="B372" t="s">
         <v>700</v>
-      </c>
-      <c r="B372" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
+        <v>701</v>
+      </c>
+      <c r="B373" t="s">
         <v>702</v>
-      </c>
-      <c r="B373" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
+        <v>703</v>
+      </c>
+      <c r="B374" t="s">
         <v>704</v>
-      </c>
-      <c r="B374" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B375" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
+        <v>706</v>
+      </c>
+      <c r="B376" t="s">
         <v>707</v>
-      </c>
-      <c r="B376" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
+        <v>709</v>
+      </c>
+      <c r="B377" t="s">
         <v>710</v>
-      </c>
-      <c r="B377" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
+        <v>711</v>
+      </c>
+      <c r="B378" t="s">
         <v>712</v>
-      </c>
-      <c r="B378" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
+        <v>713</v>
+      </c>
+      <c r="B379" t="s">
         <v>714</v>
-      </c>
-      <c r="B379" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
+        <v>715</v>
+      </c>
+      <c r="B380" t="s">
         <v>716</v>
-      </c>
-      <c r="B380" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
+        <v>717</v>
+      </c>
+      <c r="B381" t="s">
         <v>718</v>
-      </c>
-      <c r="B381" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
+        <v>719</v>
+      </c>
+      <c r="B382" t="s">
         <v>720</v>
-      </c>
-      <c r="B382" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
+        <v>721</v>
+      </c>
+      <c r="B383" t="s">
         <v>722</v>
-      </c>
-      <c r="B383" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>723</v>
+      </c>
+      <c r="B384" t="s">
         <v>724</v>
-      </c>
-      <c r="B384" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
+        <v>725</v>
+      </c>
+      <c r="B385" t="s">
         <v>726</v>
-      </c>
-      <c r="B385" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>727</v>
+      </c>
+      <c r="B386" t="s">
         <v>728</v>
-      </c>
-      <c r="B386" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
+        <v>729</v>
+      </c>
+      <c r="B387" t="s">
         <v>730</v>
-      </c>
-      <c r="B387" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
+        <v>731</v>
+      </c>
+      <c r="B388" t="s">
         <v>732</v>
-      </c>
-      <c r="B388" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
+        <v>733</v>
+      </c>
+      <c r="B389" t="s">
         <v>734</v>
-      </c>
-      <c r="B389" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
+        <v>735</v>
+      </c>
+      <c r="B390" t="s">
         <v>736</v>
-      </c>
-      <c r="B390" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
+        <v>737</v>
+      </c>
+      <c r="B391" t="s">
         <v>738</v>
-      </c>
-      <c r="B391" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
@@ -8653,34 +9075,34 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
+        <v>739</v>
+      </c>
+      <c r="B393" t="s">
         <v>740</v>
-      </c>
-      <c r="B393" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
+        <v>741</v>
+      </c>
+      <c r="B394" t="s">
         <v>742</v>
-      </c>
-      <c r="B394" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
+        <v>743</v>
+      </c>
+      <c r="B395" t="s">
         <v>744</v>
-      </c>
-      <c r="B395" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
+        <v>745</v>
+      </c>
+      <c r="B396" t="s">
         <v>746</v>
-      </c>
-      <c r="B396" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
@@ -8693,106 +9115,106 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
+        <v>747</v>
+      </c>
+      <c r="B398" t="s">
         <v>748</v>
-      </c>
-      <c r="B398" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
+        <v>749</v>
+      </c>
+      <c r="B399" t="s">
         <v>750</v>
-      </c>
-      <c r="B399" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
+        <v>751</v>
+      </c>
+      <c r="B400" t="s">
         <v>752</v>
-      </c>
-      <c r="B400" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
+        <v>753</v>
+      </c>
+      <c r="B401" t="s">
         <v>754</v>
-      </c>
-      <c r="B401" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>755</v>
+      </c>
+      <c r="B402" t="s">
         <v>756</v>
-      </c>
-      <c r="B402" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B403" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
+        <v>758</v>
+      </c>
+      <c r="B404" t="s">
         <v>759</v>
-      </c>
-      <c r="B404" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
+        <v>760</v>
+      </c>
+      <c r="B405" t="s">
         <v>761</v>
-      </c>
-      <c r="B405" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
+        <v>762</v>
+      </c>
+      <c r="B406" t="s">
         <v>763</v>
-      </c>
-      <c r="B406" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
+        <v>764</v>
+      </c>
+      <c r="B407" t="s">
         <v>765</v>
-      </c>
-      <c r="B407" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
+        <v>766</v>
+      </c>
+      <c r="B408" t="s">
         <v>767</v>
-      </c>
-      <c r="B408" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
+        <v>768</v>
+      </c>
+      <c r="B409" t="s">
         <v>769</v>
-      </c>
-      <c r="B409" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
+        <v>770</v>
+      </c>
+      <c r="B410" t="s">
         <v>771</v>
-      </c>
-      <c r="B410" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
@@ -8805,666 +9227,722 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
+        <v>772</v>
+      </c>
+      <c r="B412" t="s">
         <v>773</v>
-      </c>
-      <c r="B412" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
+        <v>774</v>
+      </c>
+      <c r="B413" t="s">
         <v>775</v>
-      </c>
-      <c r="B413" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
+        <v>776</v>
+      </c>
+      <c r="B414" t="s">
         <v>777</v>
-      </c>
-      <c r="B414" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
+        <v>778</v>
+      </c>
+      <c r="B415" t="s">
         <v>779</v>
-      </c>
-      <c r="B415" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
+        <v>780</v>
+      </c>
+      <c r="B416" t="s">
         <v>781</v>
-      </c>
-      <c r="B416" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
+        <v>782</v>
+      </c>
+      <c r="B417" t="s">
         <v>783</v>
-      </c>
-      <c r="B417" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
+        <v>784</v>
+      </c>
+      <c r="B418" t="s">
         <v>785</v>
-      </c>
-      <c r="B418" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
+        <v>786</v>
+      </c>
+      <c r="B419" t="s">
         <v>787</v>
-      </c>
-      <c r="B419" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
+        <v>788</v>
+      </c>
+      <c r="B420" t="s">
         <v>789</v>
-      </c>
-      <c r="B420" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
+        <v>790</v>
+      </c>
+      <c r="B421" t="s">
         <v>791</v>
-      </c>
-      <c r="B421" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
+        <v>794</v>
+      </c>
+      <c r="B422" t="s">
         <v>795</v>
-      </c>
-      <c r="B422" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
+        <v>792</v>
+      </c>
+      <c r="B423" t="s">
         <v>793</v>
-      </c>
-      <c r="B423" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
+        <v>796</v>
+      </c>
+      <c r="B424" t="s">
         <v>797</v>
-      </c>
-      <c r="B424" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
+        <v>798</v>
+      </c>
+      <c r="B425" t="s">
         <v>799</v>
-      </c>
-      <c r="B425" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
+        <v>800</v>
+      </c>
+      <c r="B426" t="s">
         <v>801</v>
-      </c>
-      <c r="B426" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
+        <v>802</v>
+      </c>
+      <c r="B427" t="s">
         <v>803</v>
-      </c>
-      <c r="B427" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
+        <v>805</v>
+      </c>
+      <c r="B428" t="s">
         <v>806</v>
-      </c>
-      <c r="B428" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B429" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
+        <v>808</v>
+      </c>
+      <c r="B430" t="s">
         <v>809</v>
-      </c>
-      <c r="B430" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
+        <v>810</v>
+      </c>
+      <c r="B431" t="s">
         <v>811</v>
-      </c>
-      <c r="B431" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
+        <v>812</v>
+      </c>
+      <c r="B432" t="s">
         <v>813</v>
-      </c>
-      <c r="B432" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
+        <v>814</v>
+      </c>
+      <c r="B433" t="s">
         <v>815</v>
-      </c>
-      <c r="B433" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
+        <v>816</v>
+      </c>
+      <c r="B434" t="s">
         <v>817</v>
-      </c>
-      <c r="B434" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
+        <v>818</v>
+      </c>
+      <c r="B435" t="s">
         <v>819</v>
-      </c>
-      <c r="B435" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
+        <v>820</v>
+      </c>
+      <c r="B436" t="s">
         <v>821</v>
-      </c>
-      <c r="B436" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
+        <v>822</v>
+      </c>
+      <c r="B437" t="s">
         <v>823</v>
-      </c>
-      <c r="B437" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
+        <v>824</v>
+      </c>
+      <c r="B438" t="s">
         <v>825</v>
-      </c>
-      <c r="B438" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
+        <v>826</v>
+      </c>
+      <c r="B439" t="s">
         <v>827</v>
-      </c>
-      <c r="B439" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
+        <v>828</v>
+      </c>
+      <c r="B440" t="s">
         <v>829</v>
-      </c>
-      <c r="B440" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
+        <v>830</v>
+      </c>
+      <c r="B441" t="s">
         <v>831</v>
-      </c>
-      <c r="B441" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
+        <v>832</v>
+      </c>
+      <c r="B442" t="s">
         <v>833</v>
-      </c>
-      <c r="B442" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
+        <v>834</v>
+      </c>
+      <c r="B443" t="s">
         <v>835</v>
-      </c>
-      <c r="B443" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
+        <v>836</v>
+      </c>
+      <c r="B444" t="s">
         <v>837</v>
-      </c>
-      <c r="B444" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
+        <v>838</v>
+      </c>
+      <c r="B445" t="s">
         <v>839</v>
-      </c>
-      <c r="B445" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
+        <v>840</v>
+      </c>
+      <c r="B446" t="s">
         <v>841</v>
-      </c>
-      <c r="B446" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
+        <v>842</v>
+      </c>
+      <c r="B447" t="s">
         <v>843</v>
-      </c>
-      <c r="B447" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
+        <v>844</v>
+      </c>
+      <c r="B448" t="s">
         <v>845</v>
-      </c>
-      <c r="B448" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
+        <v>846</v>
+      </c>
+      <c r="B449" t="s">
         <v>847</v>
-      </c>
-      <c r="B449" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
+        <v>848</v>
+      </c>
+      <c r="B450" t="s">
         <v>849</v>
-      </c>
-      <c r="B450" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
+        <v>850</v>
+      </c>
+      <c r="B451" t="s">
         <v>851</v>
-      </c>
-      <c r="B451" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
+        <v>852</v>
+      </c>
+      <c r="B452" t="s">
         <v>853</v>
-      </c>
-      <c r="B452" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
+        <v>854</v>
+      </c>
+      <c r="B453" t="s">
         <v>855</v>
-      </c>
-      <c r="B453" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
+        <v>856</v>
+      </c>
+      <c r="B454" t="s">
         <v>857</v>
-      </c>
-      <c r="B454" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
+        <v>858</v>
+      </c>
+      <c r="B455" t="s">
         <v>859</v>
-      </c>
-      <c r="B455" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
+        <v>860</v>
+      </c>
+      <c r="B456" t="s">
         <v>861</v>
-      </c>
-      <c r="B456" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B457" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
+        <v>863</v>
+      </c>
+      <c r="B458" t="s">
         <v>864</v>
-      </c>
-      <c r="B458" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
+        <v>866</v>
+      </c>
+      <c r="B459" t="s">
         <v>867</v>
-      </c>
-      <c r="B459" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
+        <v>868</v>
+      </c>
+      <c r="B460" t="s">
         <v>869</v>
-      </c>
-      <c r="B460" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
+        <v>870</v>
+      </c>
+      <c r="B461" t="s">
         <v>871</v>
-      </c>
-      <c r="B461" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B462" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
+        <v>873</v>
+      </c>
+      <c r="B463" t="s">
         <v>874</v>
-      </c>
-      <c r="B463" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
+        <v>875</v>
+      </c>
+      <c r="B464" t="s">
         <v>876</v>
-      </c>
-      <c r="B464" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
+        <v>877</v>
+      </c>
+      <c r="B465" t="s">
         <v>878</v>
-      </c>
-      <c r="B465" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
+        <v>879</v>
+      </c>
+      <c r="B466" t="s">
         <v>880</v>
-      </c>
-      <c r="B466" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
+        <v>881</v>
+      </c>
+      <c r="B467" t="s">
         <v>882</v>
-      </c>
-      <c r="B467" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
+        <v>883</v>
+      </c>
+      <c r="B468" t="s">
         <v>884</v>
-      </c>
-      <c r="B468" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
+        <v>885</v>
+      </c>
+      <c r="B469" t="s">
         <v>886</v>
-      </c>
-      <c r="B469" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
+        <v>887</v>
+      </c>
+      <c r="B470" t="s">
         <v>888</v>
-      </c>
-      <c r="B470" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
+        <v>889</v>
+      </c>
+      <c r="B471" t="s">
         <v>890</v>
-      </c>
-      <c r="B471" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
+        <v>891</v>
+      </c>
+      <c r="B472" t="s">
         <v>892</v>
-      </c>
-      <c r="B472" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
+        <v>893</v>
+      </c>
+      <c r="B473" t="s">
         <v>894</v>
-      </c>
-      <c r="B473" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
+        <v>895</v>
+      </c>
+      <c r="B474" t="s">
         <v>896</v>
-      </c>
-      <c r="B474" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
+        <v>897</v>
+      </c>
+      <c r="B475" t="s">
         <v>898</v>
-      </c>
-      <c r="B475" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
+        <v>899</v>
+      </c>
+      <c r="B476" t="s">
         <v>900</v>
-      </c>
-      <c r="B476" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
+        <v>901</v>
+      </c>
+      <c r="B477" t="s">
         <v>902</v>
-      </c>
-      <c r="B477" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
+        <v>903</v>
+      </c>
+      <c r="B478" t="s">
         <v>904</v>
-      </c>
-      <c r="B478" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
+        <v>905</v>
+      </c>
+      <c r="B479" t="s">
         <v>906</v>
-      </c>
-      <c r="B479" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
+        <v>907</v>
+      </c>
+      <c r="B480" t="s">
         <v>908</v>
-      </c>
-      <c r="B480" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
+        <v>909</v>
+      </c>
+      <c r="B481" t="s">
         <v>910</v>
-      </c>
-      <c r="B481" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
+        <v>911</v>
+      </c>
+      <c r="B482" t="s">
         <v>912</v>
-      </c>
-      <c r="B482" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B483" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B484" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
+        <v>917</v>
+      </c>
+      <c r="B485" t="s">
         <v>918</v>
-      </c>
-      <c r="B485" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
+        <v>919</v>
+      </c>
+      <c r="B486" t="s">
         <v>920</v>
-      </c>
-      <c r="B486" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
+        <v>921</v>
+      </c>
+      <c r="B487" t="s">
         <v>922</v>
-      </c>
-      <c r="B487" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
+        <v>923</v>
+      </c>
+      <c r="B488" t="s">
         <v>924</v>
-      </c>
-      <c r="B488" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B489" t="s">
         <v>1553</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B490" t="s">
         <v>1657</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B491" t="s">
         <v>1659</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B492" t="s">
         <v>1661</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B493" t="s">
         <v>1663</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B494" t="s">
         <v>1665</v>
       </c>
-      <c r="B494" t="s">
-        <v>1666</v>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1793</v>
       </c>
     </row>
   </sheetData>
@@ -9475,10 +9953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I381" sqref="I381"/>
+    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B451" sqref="B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9489,26 +9967,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B1" t="s">
         <v>926</v>
-      </c>
-      <c r="B1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B2" t="s">
         <v>928</v>
-      </c>
-      <c r="B2" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B3" t="s">
         <v>930</v>
-      </c>
-      <c r="B3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -9521,626 +9999,626 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B5" t="s">
         <v>932</v>
-      </c>
-      <c r="B5" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B6" t="s">
         <v>934</v>
-      </c>
-      <c r="B6" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" t="s">
         <v>940</v>
-      </c>
-      <c r="B7" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>941</v>
+      </c>
+      <c r="B8" t="s">
         <v>942</v>
-      </c>
-      <c r="B8" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>943</v>
+      </c>
+      <c r="B9" t="s">
         <v>944</v>
-      </c>
-      <c r="B9" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B10" t="s">
         <v>946</v>
-      </c>
-      <c r="B10" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>947</v>
+      </c>
+      <c r="B11" t="s">
         <v>948</v>
-      </c>
-      <c r="B11" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B12" t="s">
         <v>950</v>
-      </c>
-      <c r="B12" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>951</v>
+      </c>
+      <c r="B13" t="s">
         <v>952</v>
-      </c>
-      <c r="B13" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B14" t="s">
         <v>954</v>
-      </c>
-      <c r="B14" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>955</v>
+      </c>
+      <c r="B15" t="s">
         <v>956</v>
-      </c>
-      <c r="B15" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>957</v>
+      </c>
+      <c r="B16" t="s">
         <v>958</v>
-      </c>
-      <c r="B16" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>959</v>
+      </c>
+      <c r="B17" t="s">
         <v>960</v>
-      </c>
-      <c r="B17" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>961</v>
+      </c>
+      <c r="B18" t="s">
         <v>962</v>
-      </c>
-      <c r="B18" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>963</v>
+      </c>
+      <c r="B19" t="s">
         <v>964</v>
-      </c>
-      <c r="B19" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>965</v>
+      </c>
+      <c r="B20" t="s">
         <v>966</v>
-      </c>
-      <c r="B20" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>967</v>
+      </c>
+      <c r="B21" t="s">
         <v>968</v>
-      </c>
-      <c r="B21" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>969</v>
+      </c>
+      <c r="B22" t="s">
         <v>970</v>
-      </c>
-      <c r="B22" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>971</v>
+      </c>
+      <c r="B23" t="s">
         <v>972</v>
-      </c>
-      <c r="B23" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>973</v>
+      </c>
+      <c r="B24" t="s">
         <v>974</v>
-      </c>
-      <c r="B24" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>975</v>
+      </c>
+      <c r="B25" t="s">
         <v>976</v>
-      </c>
-      <c r="B25" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" t="s">
         <v>978</v>
-      </c>
-      <c r="B26" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>979</v>
+      </c>
+      <c r="B27" t="s">
         <v>980</v>
-      </c>
-      <c r="B27" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>981</v>
+      </c>
+      <c r="B28" t="s">
         <v>982</v>
-      </c>
-      <c r="B28" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>983</v>
+      </c>
+      <c r="B29" t="s">
         <v>984</v>
-      </c>
-      <c r="B29" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>985</v>
+      </c>
+      <c r="B30" t="s">
         <v>986</v>
-      </c>
-      <c r="B30" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>987</v>
+      </c>
+      <c r="B31" t="s">
         <v>988</v>
-      </c>
-      <c r="B31" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>989</v>
+      </c>
+      <c r="B32" t="s">
         <v>990</v>
-      </c>
-      <c r="B32" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>991</v>
+      </c>
+      <c r="B33" t="s">
         <v>992</v>
-      </c>
-      <c r="B33" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>993</v>
+      </c>
+      <c r="B34" t="s">
         <v>994</v>
-      </c>
-      <c r="B34" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>995</v>
+      </c>
+      <c r="B35" t="s">
         <v>996</v>
-      </c>
-      <c r="B35" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>997</v>
+      </c>
+      <c r="B36" t="s">
         <v>998</v>
-      </c>
-      <c r="B36" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>999</v>
+      </c>
+      <c r="B37" t="s">
         <v>1000</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B38" t="s">
         <v>1002</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B39" t="s">
         <v>1004</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B40" t="s">
         <v>1006</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B41" t="s">
         <v>1008</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B42" t="s">
         <v>1010</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B43" t="s">
         <v>1012</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B44" t="s">
         <v>1014</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B45" t="s">
         <v>1016</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B46" t="s">
         <v>1018</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B47" t="s">
         <v>1022</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B48" t="s">
         <v>1024</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B49" t="s">
         <v>1026</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B50" t="s">
         <v>1028</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B51" t="s">
         <v>1030</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B52" t="s">
         <v>1033</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B53" t="s">
         <v>1035</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B54" t="s">
         <v>1038</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B55" t="s">
         <v>1040</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B56" t="s">
         <v>1042</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B57" t="s">
         <v>1044</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B58" t="s">
         <v>1046</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B59" t="s">
         <v>1048</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B60" t="s">
         <v>1050</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B61" t="s">
         <v>1052</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B62" t="s">
         <v>1054</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B63" t="s">
         <v>1056</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B64" t="s">
         <v>1058</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B65" t="s">
         <v>1060</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B66" t="s">
         <v>1062</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B67" t="s">
         <v>1064</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B68" t="s">
         <v>1066</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B69" t="s">
         <v>1068</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B70" t="s">
         <v>1070</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B71" t="s">
         <v>1072</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B72" t="s">
         <v>1074</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B73" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B74" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B75" t="s">
         <v>1080</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B76" t="s">
         <v>1082</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B77" t="s">
         <v>1084</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B78" t="s">
         <v>1086</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B79" t="s">
         <v>1088</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B80" t="s">
         <v>1090</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B81" t="s">
         <v>1092</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B82" t="s">
         <v>1094</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -10148,159 +10626,159 @@
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B84" t="s">
         <v>1097</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B85" t="s">
         <v>1099</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B86" t="s">
         <v>1101</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B87" t="s">
         <v>1103</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B88" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B89" t="s">
         <v>1106</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B90" t="s">
         <v>1108</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B91" t="s">
         <v>1110</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B92" t="s">
         <v>1112</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B93" t="s">
         <v>1114</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B94" t="s">
         <v>1116</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B95" t="s">
         <v>1118</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B96" t="s">
         <v>1120</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B97" t="s">
         <v>1122</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B98" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B99" t="s">
         <v>1126</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B100" t="s">
         <v>1128</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B101" t="s">
         <v>1130</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B102" t="s">
         <v>1132</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -10308,303 +10786,303 @@
         <v>295</v>
       </c>
       <c r="B103" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B104" t="s">
         <v>1135</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B105" t="s">
         <v>1137</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B106" t="s">
         <v>1139</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B107" t="s">
         <v>1141</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B108" t="s">
         <v>1143</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B109" t="s">
         <v>1145</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B110" t="s">
         <v>1147</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B111" t="s">
         <v>1149</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B112" t="s">
         <v>1151</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B113" t="s">
         <v>1153</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B114" t="s">
         <v>1155</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B115" t="s">
         <v>1157</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B116" t="s">
         <v>1159</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B117" t="s">
         <v>1161</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B118" t="s">
         <v>1163</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B119" t="s">
         <v>1165</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B120" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B121" t="s">
         <v>1168</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B122" t="s">
         <v>1170</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B123" t="s">
         <v>1172</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B124" t="s">
         <v>1174</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B125" t="s">
         <v>1176</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B126" t="s">
         <v>1178</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B127" t="s">
         <v>1180</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B128" t="s">
         <v>1182</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B129" t="s">
         <v>1184</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B130" t="s">
         <v>1186</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B131" t="s">
         <v>1188</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B132" t="s">
         <v>1190</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B133" t="s">
         <v>1192</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B134" t="s">
         <v>1194</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B135" t="s">
         <v>1196</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B136" t="s">
         <v>1198</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B137" t="s">
         <v>1200</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B138" t="s">
         <v>1202</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B139" t="s">
         <v>1204</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B140" t="s">
         <v>1206</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -10612,631 +11090,631 @@
         <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B142" t="s">
         <v>1209</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B143" t="s">
         <v>1211</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B144" t="s">
         <v>1213</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B145" t="s">
         <v>1215</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B146" t="s">
         <v>1217</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B147" t="s">
         <v>1219</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B148" t="s">
         <v>1221</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B149" t="s">
         <v>1223</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B150" t="s">
         <v>1225</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B151" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B152" t="s">
         <v>1228</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B153" t="s">
         <v>1230</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B154" t="s">
         <v>1232</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B155" t="s">
         <v>1234</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B156" t="s">
         <v>1236</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B157" t="s">
         <v>1238</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B158" t="s">
         <v>1240</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B159" t="s">
         <v>1242</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B160" t="s">
         <v>1244</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B161" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B162" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B163" t="s">
         <v>1250</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B164" t="s">
         <v>1252</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B165" t="s">
         <v>1254</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B166" t="s">
         <v>1256</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B167" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B168" t="s">
         <v>1263</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B169" t="s">
         <v>1265</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B170" t="s">
         <v>1267</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B171" t="s">
         <v>1269</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B172" t="s">
         <v>1271</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B173" t="s">
         <v>1273</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B174" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B175" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B176" t="s">
         <v>1281</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B177" t="s">
         <v>1283</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B178" t="s">
         <v>1285</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B179" t="s">
         <v>1287</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B180" t="s">
         <v>1289</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B181" t="s">
         <v>1291</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B182" t="s">
         <v>1293</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B183" t="s">
         <v>1295</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B184" t="s">
         <v>1297</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B185" t="s">
         <v>1299</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B186" t="s">
         <v>1301</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B188" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B189" t="s">
         <v>1307</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B190" t="s">
         <v>1309</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B191" t="s">
         <v>1311</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B192" t="s">
         <v>1313</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B193" t="s">
         <v>1315</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B194" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B195" t="s">
         <v>1319</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B196" t="s">
         <v>1321</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B197" t="s">
         <v>1323</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B198" t="s">
         <v>1325</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B199" t="s">
         <v>1327</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B200" t="s">
         <v>1329</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B201" t="s">
         <v>1331</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B202" t="s">
         <v>1333</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B203" t="s">
         <v>1335</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B204" t="s">
         <v>1337</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B206" t="s">
         <v>1341</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B207" t="s">
         <v>1343</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B208" t="s">
         <v>1345</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B209" t="s">
         <v>1347</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B210" t="s">
         <v>1349</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B211" t="s">
         <v>1351</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B212" t="s">
         <v>1353</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B213" t="s">
         <v>1355</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B214" t="s">
         <v>1357</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B215" t="s">
         <v>1359</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B216" t="s">
         <v>1361</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B217" t="s">
         <v>1363</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B218" t="s">
         <v>1365</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B219" t="s">
         <v>1367</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -11244,655 +11722,655 @@
         <v>345</v>
       </c>
       <c r="B220" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B221" t="s">
         <v>1370</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B222" t="s">
         <v>1372</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B223" t="s">
         <v>1374</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B224" t="s">
         <v>1376</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B225" t="s">
         <v>1378</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B226" t="s">
         <v>1380</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B227" t="s">
         <v>1382</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B228" t="s">
         <v>1384</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B229" t="s">
         <v>1386</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B230" t="s">
         <v>1388</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B231" t="s">
         <v>1390</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B232" t="s">
         <v>1392</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B233" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B234" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B235" t="s">
         <v>1398</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B236" t="s">
         <v>1400</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B237" t="s">
         <v>1402</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B238" t="s">
         <v>1404</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B239" t="s">
         <v>1406</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B240" t="s">
         <v>1408</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B241" t="s">
         <v>1410</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B242" t="s">
         <v>1412</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B243" t="s">
         <v>1414</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B244" t="s">
         <v>1416</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B245" t="s">
         <v>1418</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B246" t="s">
         <v>1420</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B247" t="s">
         <v>1422</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B248" t="s">
         <v>1424</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B249" t="s">
         <v>1426</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B250" t="s">
         <v>1428</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B251" t="s">
         <v>1430</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B252" t="s">
         <v>1432</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B253" t="s">
         <v>1434</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B254" t="s">
         <v>1436</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B255" t="s">
         <v>1438</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B256" t="s">
         <v>1440</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B257" t="s">
         <v>1442</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B258" t="s">
         <v>1444</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B259" t="s">
         <v>1446</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B260" t="s">
         <v>1448</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B261" t="s">
         <v>1450</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B262" t="s">
         <v>1452</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B263" t="s">
         <v>1454</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B264" t="s">
         <v>1456</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B265" t="s">
         <v>1458</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B266" t="s">
         <v>1460</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B267" t="s">
         <v>1462</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B268" t="s">
         <v>1464</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B269" t="s">
         <v>1466</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B270" t="s">
         <v>1468</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B271" t="s">
         <v>1470</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B272" t="s">
         <v>1472</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B273" t="s">
         <v>1474</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B274" t="s">
         <v>1476</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B275" t="s">
         <v>1478</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B276" t="s">
         <v>1480</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B277" t="s">
         <v>1482</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B278" t="s">
         <v>1484</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B279" t="s">
         <v>1486</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B280" t="s">
         <v>1488</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B281" t="s">
         <v>1490</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B282" t="s">
         <v>1492</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B283" t="s">
         <v>1494</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B284" t="s">
         <v>1496</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B285" t="s">
         <v>1498</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B286" t="s">
         <v>1500</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B287" t="s">
         <v>1502</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B288" t="s">
         <v>1504</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B289" t="s">
         <v>1506</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B290" t="s">
         <v>1508</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B291" t="s">
         <v>1510</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B292" t="s">
         <v>1512</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B293" t="s">
         <v>1514</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B294" t="s">
         <v>1516</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B295" t="s">
         <v>1518</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B296" t="s">
         <v>1520</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B297" t="s">
         <v>1522</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B298" t="s">
         <v>1524</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B299" t="s">
         <v>1526</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B301" t="s">
         <v>1530</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -11900,695 +12378,1199 @@
         <v>276</v>
       </c>
       <c r="B302" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B303" t="s">
         <v>1533</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B304" t="s">
         <v>1535</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B305" t="s">
         <v>1537</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B306" t="s">
         <v>1539</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B307" t="s">
         <v>1541</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B308" t="s">
         <v>1543</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B309" t="s">
         <v>1545</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B310" t="s">
         <v>1547</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B311" t="s">
         <v>1549</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B312" t="s">
         <v>1551</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B313" t="s">
         <v>1555</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B314" t="s">
         <v>1557</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B315" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B316" t="s">
         <v>1560</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B317" t="s">
         <v>1562</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B318" t="s">
         <v>1564</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B319" t="s">
         <v>1566</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B320" t="s">
         <v>1568</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B321" t="s">
         <v>1570</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B322" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B323" t="s">
         <v>1574</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B324" t="s">
         <v>1576</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B325" t="s">
         <v>1578</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B326" t="s">
         <v>1580</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B327" t="s">
         <v>1582</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B328" t="s">
         <v>1584</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B329" t="s">
         <v>1586</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B330" t="s">
         <v>1588</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B331" t="s">
         <v>1590</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B332" t="s">
         <v>1592</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B333" t="s">
         <v>1594</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B334" t="s">
         <v>1596</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B335" t="s">
         <v>1598</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B336" t="s">
         <v>1600</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B337" t="s">
         <v>1602</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B338" t="s">
         <v>1604</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B339" t="s">
         <v>1606</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B340" t="s">
         <v>1608</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B341" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B342" t="s">
         <v>1611</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B343" t="s">
         <v>1614</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B344" t="s">
         <v>1616</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B345" t="s">
         <v>1618</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B346" t="s">
         <v>1620</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B347" t="s">
         <v>1622</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B348" t="s">
         <v>1624</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B349" t="s">
         <v>1626</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B350" t="s">
         <v>1628</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B351" t="s">
         <v>1630</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B352" t="s">
         <v>1632</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B353" t="s">
         <v>1634</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B354" t="s">
         <v>1636</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B355" t="s">
         <v>1638</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B356" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B357" t="s">
         <v>1641</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B358" t="s">
         <v>1643</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B359" t="s">
         <v>1645</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B360" t="s">
         <v>1647</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B361" t="s">
         <v>1649</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B362" t="s">
         <v>1651</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B363" t="s">
         <v>1653</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B364" t="s">
         <v>1655</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B365" t="s">
         <v>1667</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B366" t="s">
         <v>1669</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B367" t="s">
         <v>1671</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B368" t="s">
         <v>1673</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B369" t="s">
         <v>1675</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B370" t="s">
         <v>1677</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B371" t="s">
         <v>1679</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B372" t="s">
         <v>1681</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B373" t="s">
         <v>1683</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B374" t="s">
         <v>1685</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B375" t="s">
         <v>1687</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B376" t="s">
         <v>1689</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B377" t="s">
         <v>1691</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B378" t="s">
         <v>1693</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B379" t="s">
         <v>1695</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B380" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>1698</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B382" t="s">
         <v>1700</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B383" t="s">
         <v>1703</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B384" t="s">
         <v>1705</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B385" t="s">
         <v>1707</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B386" t="s">
         <v>1709</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B387" t="s">
         <v>1711</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B388" t="s">
         <v>1713</v>
       </c>
-      <c r="B388" t="s">
-        <v>1714</v>
+    </row>
+    <row r="389" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1855</v>
       </c>
     </row>
   </sheetData>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF8744-6803-47AD-8DAA-67F666F8506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61196E27-F5C2-4D27-87C0-C193AB00E839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="2015">
   <si>
     <t>spurred</t>
   </si>
@@ -5231,9 +5231,6 @@
 adj. 装有马刺的；有花距的</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>whimsical</t>
   </si>
   <si>
@@ -5851,9 +5848,6 @@
     <t>n. 喘息之机；（痛苦等的）暂时缓解 a short period of rest or relief from something difficult or unpleasant: take a</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>portent</t>
   </si>
   <si>
@@ -5994,6 +5988,165 @@
   </si>
   <si>
     <t>adj. 不可改变的；不可挽回的；不可撤销的 that cannot be changed back to what it was before: an irreversible</t>
+  </si>
+  <si>
+    <t>benign</t>
+  </si>
+  <si>
+    <t>stymie</t>
+  </si>
+  <si>
+    <t>refinement</t>
+  </si>
+  <si>
+    <t>n. ⾼雅，⽂雅，考究 the quality or state of being refined ; cultivation: an atmosphere of refinement</t>
+  </si>
+  <si>
+    <t>unfathomable</t>
+  </si>
+  <si>
+    <t>adj. 深不可测的；无底的；莫测高深的</t>
+  </si>
+  <si>
+    <t>deviate</t>
+  </si>
+  <si>
+    <t>v.i. 背离，偏离 to do something that is different or to be different from what is usual or expected: deviate from the</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>n. 背离，偏离 the action of departing from an established course or accepted standard: a deviation</t>
+  </si>
+  <si>
+    <t>succumb</t>
+  </si>
+  <si>
+    <t>v.i. 屈服，屈从 fail to resist (pressure, temptation, or some other negative force): The government has succumbed to</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>v.t. 产⽣，带来 (of an action or process) produce or deliver (a result or gain): this method yields the same results. 这
+（在⼒量、重压等下）屈曲；倒塌；垮掉</t>
+  </si>
+  <si>
+    <t>unyielding</t>
+  </si>
+  <si>
+    <t>adj. 不屈服的，坚定的，顽强的 (of a person or their behavior) unlikely to be swayed; resolute:</t>
+  </si>
+  <si>
+    <t>tweak</t>
+  </si>
+  <si>
+    <t>v.t. 调节（机器、系统等），调校 improve (a mechanism or system) by making fine adjustments to it: Our software</t>
+  </si>
+  <si>
+    <t>controvert</t>
+  </si>
+  <si>
+    <t>v.t. 反驳；驳斥；质疑 deny the truth of (something): controvert a point in a discussion 在讨论中反驳⼀个观点</t>
+  </si>
+  <si>
+    <t>bolster</t>
+  </si>
+  <si>
+    <t>v.t. ⽀持；加强；提⾼ support or strengthen; prop up: Both sides offered statistics to bolster their arguments. 双⽅都</t>
+  </si>
+  <si>
+    <t>contrivance</t>
+  </si>
+  <si>
+    <t>n. 发明；设计；（精巧的）构造物 a thing that is created skillfully and inventively to serve a</t>
+  </si>
+  <si>
+    <t>contrive</t>
+  </si>
+  <si>
+    <t>v.t. 设计，做到，实现 create or bring about (an object or a situation) by deliberate use of skill and artifice: His</t>
+  </si>
+  <si>
+    <t>fury</t>
+  </si>
+  <si>
+    <t>n. 狂暴；激烈；暴烈 extreme fierceness or violence: South Florida felt the full fury of the storm. 南佛罗⾥达遭到</t>
+  </si>
+  <si>
+    <t>dejected</t>
+  </si>
+  <si>
+    <t>adj. 沮丧的，垂头丧⽓的，情绪低落的 sad and depressed; dispirited: she grew more and more melancholy dejected.</t>
+  </si>
+  <si>
+    <t>unease</t>
+  </si>
+  <si>
+    <t>n. 不安 anxiety or discontent: public unease about defense policy 公众对于防卫政策的不安</t>
+  </si>
+  <si>
+    <t>reproach</t>
+  </si>
+  <si>
+    <t>n. 责备；耻辱
+vt. 责备；申斥</t>
+  </si>
+  <si>
+    <t>irreproachable</t>
+  </si>
+  <si>
+    <t>adj. ⽆可指责的；⽆懈可击的 not deserving criticism or blame; having no fault: She is irreproachably proper. 她⽆</t>
+  </si>
+  <si>
+    <t>quirky</t>
+  </si>
+  <si>
+    <t>adj. 古怪的 characterized by peculiar or unexpected traits: her quirky choices 她奇怪的选择</t>
+  </si>
+  <si>
+    <t>ostentatious</t>
+  </si>
+  <si>
+    <t>adj. 炫耀的，卖弄的 behaving in a way that is meant to impress people by showing how rich,</t>
+  </si>
+  <si>
+    <t>ostentation</t>
+  </si>
+  <si>
+    <t>n. （对财富、学识等的）炫耀，夸⽰，卖弄 pretentious and vulgar display, especially of wealth and luxury,</t>
+  </si>
+  <si>
+    <t>unostentatious</t>
+  </si>
+  <si>
+    <t>adj. 不虚饰的；朴素的；不夸耀的</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>adj. 威严的；令人敬畏的
+n. (August) 八月</t>
+  </si>
+  <si>
+    <t>precipitate</t>
+  </si>
+  <si>
+    <t>adj. 鲁莽的；草率的 done, made, or acting suddenly or without careful consideration: Their actions were precipitate.</t>
+  </si>
+  <si>
+    <t>tactful</t>
+  </si>
+  <si>
+    <t>adj. 处事巧妙的，得体的 having or showing tact: A tactful reply hurts nobody. 圆通得体的回答不伤任何⼈的感</t>
+  </si>
+  <si>
+    <t>conflate</t>
+  </si>
+  <si>
+    <t>v.t. 合并；混合 combine (two or more texts, ideas, etc.) into one: a conflated color vista ⾊彩缤纷的景⾊</t>
   </si>
 </sst>
 </file>
@@ -6332,9 +6485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD501"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6354,7 +6505,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1713</v>
+        <v>1964</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6410,7 +6561,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1917</v>
+        <v>1963</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -9106,7 +9257,7 @@
         <v>665</v>
       </c>
       <c r="B355" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -9306,7 +9457,7 @@
         <v>714</v>
       </c>
       <c r="B380" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
@@ -10223,58 +10374,58 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B495" t="s">
         <v>1716</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B496" t="s">
         <v>1720</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B497" t="s">
         <v>1723</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B498" t="s">
         <v>1725</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B499" t="s">
         <v>1727</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B500" t="s">
         <v>1729</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B501" t="s">
         <v>1790</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -10285,10 +10436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView topLeftCell="A347" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13403,146 +13554,146 @@
     </row>
     <row r="389" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>1714</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B390" t="s">
         <v>1718</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B391" t="s">
         <v>1731</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B392" t="s">
         <v>1733</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B393" t="s">
         <v>1735</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B395" t="s">
         <v>1739</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B396" t="s">
         <v>1741</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B397" t="s">
         <v>1743</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B398" t="s">
         <v>1745</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B399" t="s">
         <v>1747</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B400" t="s">
         <v>1749</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B401" t="s">
         <v>1751</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B402" t="s">
         <v>1753</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B403" t="s">
         <v>1755</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B404" t="s">
         <v>1757</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B405" t="s">
         <v>1759</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1761</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
@@ -13550,551 +13701,551 @@
         <v>1538</v>
       </c>
       <c r="B407" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B408" t="s">
         <v>1764</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B409" t="s">
         <v>1766</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B410" t="s">
         <v>1768</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B411" t="s">
         <v>1770</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B412" t="s">
         <v>1772</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B413" t="s">
         <v>1774</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B414" t="s">
         <v>1776</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B415" t="s">
         <v>1778</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B416" t="s">
         <v>1780</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B417" t="s">
         <v>1782</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B418" t="s">
         <v>1784</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B419" t="s">
         <v>1786</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B420" t="s">
         <v>1788</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B421" t="s">
         <v>1792</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B422" t="s">
         <v>1794</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B423" t="s">
         <v>1796</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B424" t="s">
         <v>1798</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B425" t="s">
         <v>1800</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B426" t="s">
         <v>1802</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B427" t="s">
         <v>1804</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B428" t="s">
         <v>1806</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B429" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B430" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B431" t="s">
         <v>1812</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B432" t="s">
         <v>1814</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B433" t="s">
         <v>1816</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B434" t="s">
         <v>1818</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B435" t="s">
         <v>1820</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B436" t="s">
         <v>1822</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B437" t="s">
         <v>1824</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B438" t="s">
         <v>1826</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B439" t="s">
         <v>1828</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B440" t="s">
         <v>1830</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B441" t="s">
         <v>1832</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B442" t="s">
         <v>1834</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>1836</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B444" t="s">
         <v>1838</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B445" t="s">
         <v>1840</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B446" t="s">
         <v>1842</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B447" t="s">
         <v>1844</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B448" t="s">
         <v>1846</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B449" t="s">
         <v>1848</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B450" t="s">
         <v>1850</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B451" t="s">
         <v>1852</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B452" t="s">
         <v>1854</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B453" t="s">
         <v>1856</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B454" t="s">
         <v>1858</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B455" t="s">
         <v>1860</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B456" t="s">
         <v>1862</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B457" t="s">
         <v>1864</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B458" t="s">
         <v>1866</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B459" t="s">
         <v>1869</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B460" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B461" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B462" t="s">
         <v>1874</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B463" t="s">
         <v>1876</v>
-      </c>
-      <c r="B463" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B464" t="s">
         <v>1878</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B465" t="s">
         <v>1880</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B466" t="s">
         <v>1884</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B467" t="s">
         <v>1882</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>1886</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B469" t="s">
         <v>1888</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>1890</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B471" t="s">
         <v>1892</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>1894</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B473" t="s">
         <v>1896</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B474" t="s">
         <v>1898</v>
-      </c>
-      <c r="B474" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B475" t="s">
         <v>1900</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
@@ -14102,199 +14253,231 @@
         <v>682</v>
       </c>
       <c r="B476" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B477" t="s">
         <v>1903</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B478" t="s">
         <v>1905</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B479" t="s">
         <v>1907</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B480" t="s">
         <v>1909</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B481" t="s">
         <v>1911</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B482" t="s">
         <v>1913</v>
-      </c>
-      <c r="B482" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B483" t="s">
         <v>1915</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B484" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B485" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B486" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B487" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B488" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B489" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B490" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B492" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B493" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B494" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B495" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B496" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B497" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B498" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B499" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B500" t="s">
-        <v>1951</v>
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B502" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B503" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -14308,64 +14491,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="83.81640625" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B2" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B3" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B4" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B6" t="s">
-        <v>1964</v>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DD995-BF3B-4089-8DB4-504915A00FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB979BA5-0FB2-44E4-B73B-D03A2D4C1E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="4" r:id="rId3"/>
+    <sheet name="3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -10233,10 +10233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD504"/>
+  <dimension ref="A1:XFD500"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A475" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501:XFD504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14178,38 +14178,6 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A501" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A502" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A503" t="s">
-        <v>2098</v>
-      </c>
-      <c r="B503" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A504" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B504" t="s">
-        <v>2105</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14218,10 +14186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B409" sqref="B409"/>
+    <sheetView topLeftCell="A480" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:XFD511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18222,102 +18190,6 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A500" t="s">
-        <v>1927</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A501" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A502" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A503" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A504" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A505" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A506" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A507" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A508" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A509" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A510" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B510" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A511" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B511" t="s">
-        <v>2238</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C550">
     <sortCondition ref="C517"/>
@@ -18329,10 +18201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
-  <dimension ref="A1:B583"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B583" sqref="B583"/>
+    <sheetView topLeftCell="A486" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501:XFD583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22341,673 +22213,816 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A501" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B501" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A502" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>2942</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A503" t="s">
-        <v>2943</v>
-      </c>
-      <c r="B503" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A504" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B504" t="s">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A505" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B505" t="s">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A506" t="s">
-        <v>2949</v>
-      </c>
-      <c r="B506" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A507" t="s">
-        <v>2951</v>
-      </c>
-      <c r="B507" t="s">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A508" t="s">
-        <v>2955</v>
-      </c>
-      <c r="B508" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A509" t="s">
-        <v>2953</v>
-      </c>
-      <c r="B509" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A510" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B510" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A511" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B511" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A512" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B512" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A513" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B513" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A514" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B514" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A515" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B515" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A516" t="s">
-        <v>2966</v>
-      </c>
-      <c r="B516" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A517" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B517" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A518" t="s">
-        <v>2970</v>
-      </c>
-      <c r="B518" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A519" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B519" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A520" t="s">
-        <v>2974</v>
-      </c>
-      <c r="B520" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A521" t="s">
-        <v>2976</v>
-      </c>
-      <c r="B521" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A522" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B522" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A523" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B523" t="s">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A524" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B524" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A525" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B525" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A526" t="s">
-        <v>2988</v>
-      </c>
-      <c r="B526" t="s">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A527" t="s">
-        <v>2990</v>
-      </c>
-      <c r="B527" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A528" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B528" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A529" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B529" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A530" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B530" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A531" t="s">
-        <v>2998</v>
-      </c>
-      <c r="B531" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A532" t="s">
-        <v>3000</v>
-      </c>
-      <c r="B532" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A533" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B533" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A534" t="s">
-        <v>3004</v>
-      </c>
-      <c r="B534" t="s">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A535" t="s">
-        <v>3006</v>
-      </c>
-      <c r="B535" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A536" t="s">
-        <v>3008</v>
-      </c>
-      <c r="B536" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A537" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B537" t="s">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A538" t="s">
-        <v>3012</v>
-      </c>
-      <c r="B538" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A539" t="s">
-        <v>3014</v>
-      </c>
-      <c r="B539" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A540" t="s">
-        <v>3016</v>
-      </c>
-      <c r="B540" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A541" t="s">
-        <v>3018</v>
-      </c>
-      <c r="B541" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A542" t="s">
-        <v>3020</v>
-      </c>
-      <c r="B542" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A543" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B543" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A544" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B544" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A545" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A546" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B546" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A547" t="s">
-        <v>3032</v>
-      </c>
-      <c r="B547" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A548" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B548" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A549" t="s">
-        <v>3036</v>
-      </c>
-      <c r="B549" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A550" t="s">
-        <v>874</v>
-      </c>
-      <c r="B550" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A551" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A552" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B552" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A553" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B553" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A554" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B554" t="s">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A555" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B555" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A556" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B556" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A557" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B557" t="s">
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A558" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B558" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A559" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B559" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A560" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B560" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A561" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B561" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A562" t="s">
-        <v>3059</v>
-      </c>
-      <c r="B562" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A563" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B563" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A564" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B564" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A565" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B565" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A566" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A567" t="s">
-        <v>3067</v>
-      </c>
-      <c r="B567" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A568" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B568" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A569" t="s">
-        <v>3071</v>
-      </c>
-      <c r="B569" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A570" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B570" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A571" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B571" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A572" t="s">
-        <v>3077</v>
-      </c>
-      <c r="B572" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A573" t="s">
-        <v>3079</v>
-      </c>
-      <c r="B573" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A574" t="s">
-        <v>3081</v>
-      </c>
-      <c r="B574" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A575" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B575" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A576" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B576" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A577" t="s">
-        <v>3087</v>
-      </c>
-      <c r="B577" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A578" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B578" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A579" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B579" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A580" t="s">
-        <v>3093</v>
-      </c>
-      <c r="B580" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A581" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B581" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A582" t="s">
-        <v>3097</v>
-      </c>
-      <c r="B582" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A583" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B583" t="s">
-        <v>3100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CE956-A94B-446A-8DB0-7B0E7916BB98}">
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>874</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB979BA5-0FB2-44E4-B73B-D03A2D4C1E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90952239-BBC6-4472-9B31-0E446B2E20A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="3101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="3186">
   <si>
     <t>spurred</t>
   </si>
@@ -9414,6 +9415,263 @@
   </si>
   <si>
     <t>vi. （出于道德⽽）迟疑，犹豫 a feeling that prevents you from doing something that you think is wrong: scruple</t>
+  </si>
+  <si>
+    <t>abrogate</t>
+  </si>
+  <si>
+    <t>vt. 废除；取消</t>
+  </si>
+  <si>
+    <t>forthwith</t>
+  </si>
+  <si>
+    <t>adv. 立刻，立即；不犹豫地</t>
+  </si>
+  <si>
+    <t>enact</t>
+  </si>
+  <si>
+    <t>vt. 颁布；制定法律；扮演；发生</t>
+  </si>
+  <si>
+    <t>morbidity</t>
+  </si>
+  <si>
+    <t>n. 发病率；病态；不健全</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>vt. 保持；雇；记住</t>
+  </si>
+  <si>
+    <t>v. 表明，清楚显示（尤指情感、态度或品质）；证明；（病症）显现；（鬼魂或神灵）出现；在清单上记录</t>
+  </si>
+  <si>
+    <t>esurient</t>
+  </si>
+  <si>
+    <t>adj. 贪婪的；暴食的；饥饿的</t>
+  </si>
+  <si>
+    <t>philanthropic</t>
+  </si>
+  <si>
+    <t>adj. 博爱的；仁慈的</t>
+  </si>
+  <si>
+    <t>impoverished</t>
+  </si>
+  <si>
+    <t>adj. 穷困的；用尽了的，无创造性的</t>
+  </si>
+  <si>
+    <t>insolent</t>
+  </si>
+  <si>
+    <t>adj. 无礼的；傲慢的；粗野的；无耻的</t>
+  </si>
+  <si>
+    <t>indigent</t>
+  </si>
+  <si>
+    <t>adj. 贫困的；贫穷的（副词indigently）</t>
+  </si>
+  <si>
+    <t>patrician</t>
+  </si>
+  <si>
+    <t>adj. 贵族的；显贵的</t>
+  </si>
+  <si>
+    <t>paean</t>
+  </si>
+  <si>
+    <t>n. 赞美歌，欢乐歌</t>
+  </si>
+  <si>
+    <t>plebeian</t>
+  </si>
+  <si>
+    <t>adj. 平民的；普通的；粗俗的</t>
+  </si>
+  <si>
+    <t>abase</t>
+  </si>
+  <si>
+    <t>v. 表现卑微，卑躬屈膝；使……降低（身份、地位等）</t>
+  </si>
+  <si>
+    <t>expatiate</t>
+  </si>
+  <si>
+    <t>vi. 详述；细说；漫游</t>
+  </si>
+  <si>
+    <t>hapless</t>
+  </si>
+  <si>
+    <t>adj. 运气不好的，倒霉的</t>
+  </si>
+  <si>
+    <t>marred</t>
+  </si>
+  <si>
+    <t>adj. 被损毁的
+v. 损毁，损伤（mar的过去式）</t>
+  </si>
+  <si>
+    <t>vaunt</t>
+  </si>
+  <si>
+    <t>vi. 自夸；吹嘘</t>
+  </si>
+  <si>
+    <t>envision</t>
+  </si>
+  <si>
+    <t>vagary</t>
+  </si>
+  <si>
+    <t>n. 奇想；奇特行为</t>
+  </si>
+  <si>
+    <t>vanguard</t>
+  </si>
+  <si>
+    <t>n. 先锋；前锋科学卫星</t>
+  </si>
+  <si>
+    <t>laudable</t>
+  </si>
+  <si>
+    <t>adj. 值得赞赏的</t>
+  </si>
+  <si>
+    <t>inaudible</t>
+  </si>
+  <si>
+    <t>adj. 听不见的；不可闻的</t>
+  </si>
+  <si>
+    <t>extemporaneous</t>
+  </si>
+  <si>
+    <t>adj. 即席的，临时的；无准备的；不用讲稿的；善于即席讲话的</t>
+  </si>
+  <si>
+    <t>debris</t>
+  </si>
+  <si>
+    <t>n. 碎片，残骸</t>
+  </si>
+  <si>
+    <t>amass</t>
+  </si>
+  <si>
+    <t>vt. 积聚，积累</t>
+  </si>
+  <si>
+    <t>jeopardize</t>
+  </si>
+  <si>
+    <t>vt. 危害；使陷危地；使受危困</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>n. 密切关系，交往；和谐一致；亲善，融洽；和睦关系</t>
+  </si>
+  <si>
+    <t>caustically</t>
+  </si>
+  <si>
+    <t>adv. 挖苦地；腐蚀地；讥讽地</t>
+  </si>
+  <si>
+    <t>obliging</t>
+  </si>
+  <si>
+    <t>adj. 乐于助人的，热心相助的</t>
+  </si>
+  <si>
+    <t>artless</t>
+  </si>
+  <si>
+    <t>adj. 天真的；朴实的；无虚饰的
+adj. 粗糙的，笨拙的 without skill or finesse: her artless prose 她笨拙的⽂章</t>
+  </si>
+  <si>
+    <t>floundering</t>
+  </si>
+  <si>
+    <t>v.t. 想象，设想 imagine as a future possibility; visualize: In the future we envision a federation of companies. 我们设</t>
+  </si>
+  <si>
+    <t>n. 挣扎</t>
+  </si>
+  <si>
+    <t>bungling</t>
+  </si>
+  <si>
+    <t>v. 笨拙地做；搞糟（bungle 的现在分词）</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>adj. 疲倦的；厌烦的；令人厌烦的</t>
+  </si>
+  <si>
+    <t>dizzying</t>
+  </si>
+  <si>
+    <t>v. 使人眼花撩乱（dizzy 的现在分词）</t>
+  </si>
+  <si>
+    <t>vertiginous</t>
+  </si>
+  <si>
+    <t>adj. 令人眩晕的，眼花的；高而陡峭的；旋转的；不稳定的</t>
+  </si>
+  <si>
+    <t>giddy</t>
+  </si>
+  <si>
+    <t>adj. 头晕的；眼花的；令人眼花缭乱的；轻浮的</t>
+  </si>
+  <si>
+    <t>nauseating</t>
+  </si>
+  <si>
+    <t>adj. 令人恶心的；厌恶的</t>
+  </si>
+  <si>
+    <t>saturnine</t>
+  </si>
+  <si>
+    <t>adj. 忧郁的；阴沉的；铅中毒的；沉默寡言的</t>
+  </si>
+  <si>
+    <t>frolicsome</t>
+  </si>
+  <si>
+    <t>adj. 嬉戏的，爱闹着玩的</t>
+  </si>
+  <si>
+    <t>beaming</t>
+  </si>
+  <si>
+    <t>v. 照耀；发出（无线电信号）；笑容满面（beam 的现在分词）</t>
+  </si>
+  <si>
+    <t>desultory</t>
+  </si>
+  <si>
+    <t>adj. 断断续续的；散漫的；不连贯的，无条理的</t>
   </si>
 </sst>
 </file>
@@ -9470,13 +9728,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10235,8 +10494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD500"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501:XFD504"/>
+    <sheetView topLeftCell="A456" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14188,8 +14447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
   <dimension ref="A1:B499"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:XFD511"/>
+    <sheetView topLeftCell="A470" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18203,8 +18462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
   <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501:XFD583"/>
+    <sheetView topLeftCell="A138" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22222,13 +22481,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CE956-A94B-446A-8DB0-7B0E7916BB98}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -22710,7 +22973,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>3026</v>
       </c>
@@ -23022,7 +23285,352 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F18479D-372C-4799-94F0-FBAE04A097C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE10BE2E-2A1C-4B82-A7A9-17D957D02122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="3 debris" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4267" uniqueCount="4136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="4241">
   <si>
     <t>spurred</t>
   </si>
@@ -13725,6 +13724,322 @@
   </si>
   <si>
     <t>n. 口是心非；表里不一；不诚实</t>
+  </si>
+  <si>
+    <t>n. 不足； 缺陷</t>
+  </si>
+  <si>
+    <t>inadequacy</t>
+  </si>
+  <si>
+    <t>caveat</t>
+  </si>
+  <si>
+    <t>n. 警告；中止诉讼手续的申请；货物出门概不退换；停止支付的广告</t>
+  </si>
+  <si>
+    <t>commensurate</t>
+  </si>
+  <si>
+    <t>adj. 相称的；同量的；同样大小的</t>
+  </si>
+  <si>
+    <t>incongruous</t>
+  </si>
+  <si>
+    <t>adj. 不协调的；不一致的；不和谐的</t>
+  </si>
+  <si>
+    <t>phony</t>
+  </si>
+  <si>
+    <t>adj. 假的，欺骗的
+n. 假冒者；赝品</t>
+  </si>
+  <si>
+    <t>contemplation</t>
+  </si>
+  <si>
+    <t>n. 沉思；注视；意图</t>
+  </si>
+  <si>
+    <t>dexterity</t>
+  </si>
+  <si>
+    <t>n. 灵巧；敏捷；机敏</t>
+  </si>
+  <si>
+    <t>emergence</t>
+  </si>
+  <si>
+    <t>n. 出现，浮现；发生；露头</t>
+  </si>
+  <si>
+    <t>chicanery</t>
+  </si>
+  <si>
+    <t>n. 狡辩；欺骗；强词夺理</t>
+  </si>
+  <si>
+    <t>n. 逗趣；开玩笑</t>
+  </si>
+  <si>
+    <t>enmity</t>
+  </si>
+  <si>
+    <t>n. 敌意；憎恨</t>
+  </si>
+  <si>
+    <t>sagacity</t>
+  </si>
+  <si>
+    <t>n. 睿智；聪敏；有远见</t>
+  </si>
+  <si>
+    <t>revelatory</t>
+  </si>
+  <si>
+    <t>adj. 泄露的，启示的</t>
+  </si>
+  <si>
+    <t>innately</t>
+  </si>
+  <si>
+    <t>adv. 天赋地；与生俱来的</t>
+  </si>
+  <si>
+    <t>no mean feat</t>
+  </si>
+  <si>
+    <t>绝非易事</t>
+  </si>
+  <si>
+    <t>showy</t>
+  </si>
+  <si>
+    <t>adj. 艳丽的；炫耀的；显眼的</t>
+  </si>
+  <si>
+    <t>adj. 俗气的；娼妓的；华丽而庸俗的</t>
+  </si>
+  <si>
+    <t>inaccessible</t>
+  </si>
+  <si>
+    <t>adj. 难达到的；难接近的；难见到的</t>
+  </si>
+  <si>
+    <t>vt. 厚着脸皮；硬着头皮</t>
+  </si>
+  <si>
+    <t>sapiential</t>
+  </si>
+  <si>
+    <t>adj. 智慧的；明智的；赋予智慧的</t>
+  </si>
+  <si>
+    <t>expediency</t>
+  </si>
+  <si>
+    <t>n. 方便，权宜；私利；权宜之计</t>
+  </si>
+  <si>
+    <t>transpire</t>
+  </si>
+  <si>
+    <t>vi. 发生；蒸发；泄露</t>
+  </si>
+  <si>
+    <t>insofar</t>
+  </si>
+  <si>
+    <t>adv. 在这个范围，到这个程度</t>
+  </si>
+  <si>
+    <t>foreboding</t>
+  </si>
+  <si>
+    <t>n. 预感；先兆；预兆</t>
+  </si>
+  <si>
+    <t>goading</t>
+  </si>
+  <si>
+    <t>n. 刺激；（赶牲口用的）刺棒；激励</t>
+  </si>
+  <si>
+    <t>calamity</t>
+  </si>
+  <si>
+    <t>n. 灾难；不幸事件</t>
+  </si>
+  <si>
+    <t>inscrutability</t>
+  </si>
+  <si>
+    <t>n. 不可思议；不能预测</t>
+  </si>
+  <si>
+    <t>attenuate</t>
+  </si>
+  <si>
+    <t>v. （使）减弱；（使）纤细，稀薄</t>
+  </si>
+  <si>
+    <t>oscillate</t>
+  </si>
+  <si>
+    <t>vt. 使振荡；使振动；使动摇</t>
+  </si>
+  <si>
+    <t>vi. 摇曳；踌躇；摆动</t>
+  </si>
+  <si>
+    <t>laud</t>
+  </si>
+  <si>
+    <t>vt. 赞美；称赞</t>
+  </si>
+  <si>
+    <t>beget</t>
+  </si>
+  <si>
+    <t>vt. 产生；招致；引起；当…的父亲</t>
+  </si>
+  <si>
+    <t>illicit</t>
+  </si>
+  <si>
+    <t>adj. 违法的；不正当的</t>
+  </si>
+  <si>
+    <t>descriptive</t>
+  </si>
+  <si>
+    <t>adj. 描写的，叙述的；描写性的</t>
+  </si>
+  <si>
+    <t>cessation</t>
+  </si>
+  <si>
+    <t>n. 停止；中止；中断</t>
+  </si>
+  <si>
+    <t>mollify</t>
+  </si>
+  <si>
+    <t>v. （使）平静，平息怒气；安抚，抚慰；缓和，减轻</t>
+  </si>
+  <si>
+    <t>palatable</t>
+  </si>
+  <si>
+    <t>adj. 美味的，可口的；愉快的</t>
+  </si>
+  <si>
+    <t>iniquity</t>
+  </si>
+  <si>
+    <t>n. 邪恶；不公正</t>
+  </si>
+  <si>
+    <t>parsimony</t>
+  </si>
+  <si>
+    <t>n. 吝啬；过度节俭</t>
+  </si>
+  <si>
+    <t>cosmology</t>
+  </si>
+  <si>
+    <t>n. [天] 宇宙论，[天] 宇宙学</t>
+  </si>
+  <si>
+    <t>venomous</t>
+  </si>
+  <si>
+    <t>adj. 有毒的；恶毒的；分泌毒液的；怨恨的</t>
+  </si>
+  <si>
+    <t>caustic</t>
+  </si>
+  <si>
+    <t>adj. [化学] 腐蚀性的；[化学] 苛性的；刻薄的；焦散的</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t>adj. 规定的</t>
+  </si>
+  <si>
+    <t>ungracious</t>
+  </si>
+  <si>
+    <t>adj. 无礼貌的，没规矩的；没有教养的；讨厌的</t>
+  </si>
+  <si>
+    <t>receptivity</t>
+  </si>
+  <si>
+    <t>n. 接受能力；[生理] 感受性</t>
+  </si>
+  <si>
+    <t>comportment</t>
+  </si>
+  <si>
+    <t>n. 举止，态度；动作</t>
+  </si>
+  <si>
+    <t>venerable</t>
+  </si>
+  <si>
+    <t>adj. 庄严的，值得尊敬的；珍贵的</t>
+  </si>
+  <si>
+    <t>indignant</t>
+  </si>
+  <si>
+    <t>adj. 愤愤不平的；义愤的</t>
+  </si>
+  <si>
+    <t>contrite</t>
+  </si>
+  <si>
+    <t>adj. 悔悟了的；后悔的；悔罪的</t>
+  </si>
+  <si>
+    <t>flaccid</t>
+  </si>
+  <si>
+    <t>adj. 弛缓的，软弱的；蔫软的；无活力的；不见成效的</t>
+  </si>
+  <si>
+    <t>instinctively</t>
+  </si>
+  <si>
+    <t>adv. 本能地</t>
+  </si>
+  <si>
+    <t>immaterial</t>
+  </si>
+  <si>
+    <t>adj. 非物质的；无形的；不重要的；非实质的</t>
+  </si>
+  <si>
+    <t>hypostatize</t>
+  </si>
+  <si>
+    <t>vt. 使…具体化；使…实体化</t>
+  </si>
+  <si>
+    <t>vt. 安置；假定</t>
+  </si>
+  <si>
+    <t>evince</t>
+  </si>
+  <si>
+    <t>vt. 表明，表示；引起</t>
   </si>
 </sst>
 </file>
@@ -14129,7 +14444,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{36081281-8E29-479F-9BEC-B939D51FE624}"/>
   </cellStyles>
   <dxfs count="2">
@@ -14820,18 +15135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD514"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B514" sqref="B514"/>
+    <sheetView topLeftCell="A478" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A493" sqref="A493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.1015625" customWidth="1"/>
-    <col min="2" max="2" width="105.3671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5234375" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="2" max="2" width="105.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8">
+    <row r="1" spans="1:3" ht="29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15705,7 +16020,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="28.8">
+    <row r="112" spans="1:2" ht="29">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -16474,7 +16789,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="43.2">
+    <row r="213" spans="1:2" ht="43.5">
       <c r="A213" t="s">
         <v>395</v>
       </c>
@@ -16634,7 +16949,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="28.8">
+    <row r="233" spans="1:2" ht="29">
       <c r="A233" t="s">
         <v>427</v>
       </c>
@@ -17097,7 +17412,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="292" spans="1:2 16384:16384" ht="43.2">
+    <row r="292" spans="1:2 16384:16384" ht="43.5">
       <c r="A292" t="s">
         <v>537</v>
       </c>
@@ -17412,7 +17727,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="28.8">
+    <row r="331" spans="1:2" ht="29">
       <c r="A331" t="s">
         <v>614</v>
       </c>
@@ -18708,7 +19023,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="28.8">
+    <row r="493" spans="1:2" ht="29">
       <c r="A493" t="s">
         <v>1704</v>
       </c>
@@ -18892,16 +19207,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="B494" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7890625" customWidth="1"/>
-    <col min="2" max="2" width="99.5234375" customWidth="1"/>
+    <col min="1" max="1" width="86.90625" customWidth="1"/>
+    <col min="2" max="2" width="99.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -20312,7 +20627,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="3" customFormat="1" ht="13.8">
+    <row r="177" spans="1:2" s="3" customFormat="1" ht="14">
       <c r="A177" s="3" t="s">
         <v>1259</v>
       </c>
@@ -20416,7 +20731,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="28.8">
+    <row r="190" spans="1:2" ht="29">
       <c r="A190" t="s">
         <v>1285</v>
       </c>
@@ -20560,7 +20875,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="28.8">
+    <row r="208" spans="1:2" ht="43.5">
       <c r="A208" t="s">
         <v>1321</v>
       </c>
@@ -21328,7 +21643,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="28.8">
+    <row r="304" spans="1:2" ht="29">
       <c r="A304" t="s">
         <v>1510</v>
       </c>
@@ -22000,7 +22315,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="28.8">
+    <row r="388" spans="1:2" ht="29">
       <c r="A388" t="s">
         <v>1680</v>
       </c>
@@ -22056,7 +22371,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="28.8">
+    <row r="395" spans="1:2" ht="29">
       <c r="A395" t="s">
         <v>1698</v>
       </c>
@@ -22096,7 +22411,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="43.2">
+    <row r="400" spans="1:2" ht="43.5">
       <c r="A400" t="s">
         <v>1720</v>
       </c>
@@ -22192,7 +22507,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="28.8">
+    <row r="412" spans="1:2" ht="43.5">
       <c r="A412" t="s">
         <v>1744</v>
       </c>
@@ -22496,7 +22811,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="28.8">
+    <row r="450" spans="1:2" ht="29">
       <c r="A450" t="s">
         <v>1819</v>
       </c>
@@ -22696,7 +23011,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="28.8">
+    <row r="475" spans="1:2" ht="43.5">
       <c r="A475" t="s">
         <v>1869</v>
       </c>
@@ -22712,7 +23027,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="28.8">
+    <row r="477" spans="1:2" ht="29">
       <c r="A477" t="s">
         <v>1873</v>
       </c>
@@ -22728,7 +23043,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="28.8">
+    <row r="479" spans="1:2" ht="29">
       <c r="A479" t="s">
         <v>1877</v>
       </c>
@@ -22864,7 +23179,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="28.8">
+    <row r="496" spans="1:2" ht="29">
       <c r="A496" t="s">
         <v>1913</v>
       </c>
@@ -23024,7 +23339,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="28.8">
+    <row r="516" spans="1:2" ht="29">
       <c r="A516" t="s">
         <v>4107</v>
       </c>
@@ -23046,6 +23361,62 @@
       </c>
       <c r="B518" t="s">
         <v>4127</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B519" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B520" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B521" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B522" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B523" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B524" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B525" t="s">
+        <v>4240</v>
       </c>
     </row>
   </sheetData>
@@ -23059,16 +23430,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView topLeftCell="A522" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B551" sqref="B551"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="51.15625" customWidth="1"/>
-    <col min="2" max="2" width="99.47265625" customWidth="1"/>
+    <col min="1" max="1" width="51.1796875" customWidth="1"/>
+    <col min="2" max="2" width="99.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -23159,7 +23530,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8">
+    <row r="12" spans="1:2" ht="43.5">
       <c r="A12" t="s">
         <v>1956</v>
       </c>
@@ -23239,7 +23610,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8">
+    <row r="22" spans="1:2" ht="29">
       <c r="A22" t="s">
         <v>1976</v>
       </c>
@@ -23327,7 +23698,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8">
+    <row r="33" spans="1:2" ht="29">
       <c r="A33" t="s">
         <v>2006</v>
       </c>
@@ -23367,7 +23738,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="43.2">
+    <row r="38" spans="1:2" ht="43.5">
       <c r="A38" t="s">
         <v>2016</v>
       </c>
@@ -23503,7 +23874,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.8">
+    <row r="55" spans="1:2" ht="29">
       <c r="A55" t="s">
         <v>2052</v>
       </c>
@@ -23599,7 +23970,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="28.8">
+    <row r="67" spans="1:2" ht="29">
       <c r="A67" t="s">
         <v>2073</v>
       </c>
@@ -23639,7 +24010,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.8">
+    <row r="72" spans="1:2" ht="29">
       <c r="A72" t="s">
         <v>2084</v>
       </c>
@@ -24631,7 +25002,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="28.8">
+    <row r="196" spans="1:2" ht="29">
       <c r="A196" t="s">
         <v>2332</v>
       </c>
@@ -24759,7 +25130,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="28.8">
+    <row r="212" spans="1:2" ht="29">
       <c r="A212" t="s">
         <v>2361</v>
       </c>
@@ -25087,7 +25458,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="28.8">
+    <row r="253" spans="1:2" ht="29">
       <c r="A253" t="s">
         <v>2442</v>
       </c>
@@ -25831,7 +26202,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="28.8">
+    <row r="346" spans="1:2" ht="29">
       <c r="A346" t="s">
         <v>2622</v>
       </c>
@@ -25847,7 +26218,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="28.8">
+    <row r="348" spans="1:2" ht="29">
       <c r="A348" t="s">
         <v>2626</v>
       </c>
@@ -26375,7 +26746,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="28.8">
+    <row r="414" spans="1:2" ht="29">
       <c r="A414" t="s">
         <v>1769</v>
       </c>
@@ -26511,7 +26882,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="28.8">
+    <row r="431" spans="1:2" ht="29">
       <c r="A431" t="s">
         <v>2790</v>
       </c>
@@ -26839,7 +27210,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="28.8">
+    <row r="472" spans="1:2" ht="29">
       <c r="A472" t="s">
         <v>2870</v>
       </c>
@@ -26991,7 +27362,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="28.8">
+    <row r="491" spans="1:2" ht="29">
       <c r="A491" t="s">
         <v>2909</v>
       </c>
@@ -27271,7 +27642,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="28.8">
+    <row r="526" spans="1:2" ht="29">
       <c r="A526" t="s">
         <v>4088</v>
       </c>
@@ -27317,6 +27688,166 @@
       </c>
       <c r="B531" t="s">
         <v>4131</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B532" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B533" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B534" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B535" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B536" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B537" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B538" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B539" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B540" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B541" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B542" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B543" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B544" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B545" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B546" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B547" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B548" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B549" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B550" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B551" t="s">
+        <v>4237</v>
       </c>
     </row>
   </sheetData>
@@ -27328,17 +27859,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CE956-A94B-446A-8DB0-7B0E7916BB98}">
-  <dimension ref="A1:C579"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="117" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A386" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.15625" customWidth="1"/>
+    <col min="1" max="1" width="93" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="3" max="3" width="8.7890625" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28808,7 +29339,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="28.8">
+    <row r="184" spans="1:3" ht="29">
       <c r="A184" t="s">
         <v>3263</v>
       </c>
@@ -28880,7 +29411,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="43.2">
+    <row r="193" spans="1:2" ht="43.5">
       <c r="A193" t="s">
         <v>3280</v>
       </c>
@@ -28968,7 +29499,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="28.8">
+    <row r="204" spans="1:2" ht="29">
       <c r="A204" t="s">
         <v>3300</v>
       </c>
@@ -29152,7 +29683,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="43.2">
+    <row r="227" spans="1:3" ht="43.5">
       <c r="A227" t="s">
         <v>3344</v>
       </c>
@@ -29259,7 +29790,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="28.8">
+    <row r="240" spans="1:3" ht="29">
       <c r="A240" t="s">
         <v>3366</v>
       </c>
@@ -29323,7 +29854,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="28.8">
+    <row r="248" spans="1:2" ht="29">
       <c r="A248" t="s">
         <v>3382</v>
       </c>
@@ -29363,7 +29894,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="28.8">
+    <row r="253" spans="1:2" ht="29">
       <c r="A253" t="s">
         <v>3392</v>
       </c>
@@ -29427,7 +29958,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="28.8">
+    <row r="261" spans="1:2" ht="29">
       <c r="A261" t="s">
         <v>3406</v>
       </c>
@@ -29459,7 +29990,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="28.8">
+    <row r="265" spans="1:2" ht="29">
       <c r="A265" t="s">
         <v>3414</v>
       </c>
@@ -29539,7 +30070,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="28.8">
+    <row r="275" spans="1:2" ht="29">
       <c r="A275" t="s">
         <v>2031</v>
       </c>
@@ -29563,7 +30094,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="28.8">
+    <row r="278" spans="1:2" ht="29">
       <c r="A278" t="s">
         <v>3436</v>
       </c>
@@ -29691,7 +30222,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="28.8">
+    <row r="294" spans="1:2" ht="43.5">
       <c r="A294" t="s">
         <v>2694</v>
       </c>
@@ -29715,7 +30246,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="28.8">
+    <row r="297" spans="1:2" ht="29">
       <c r="A297" t="s">
         <v>3470</v>
       </c>
@@ -29739,7 +30270,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="28.8">
+    <row r="300" spans="1:2" ht="29">
       <c r="A300" t="s">
         <v>3476</v>
       </c>
@@ -29803,7 +30334,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="28.8">
+    <row r="308" spans="1:2" ht="29">
       <c r="A308" t="s">
         <v>3491</v>
       </c>
@@ -29811,7 +30342,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="28.8">
+    <row r="309" spans="1:2" ht="29">
       <c r="A309" t="s">
         <v>3493</v>
       </c>
@@ -29851,7 +30382,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="28.8">
+    <row r="314" spans="1:2" ht="29">
       <c r="A314" t="s">
         <v>3503</v>
       </c>
@@ -29987,7 +30518,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="28.8">
+    <row r="331" spans="1:2" ht="29">
       <c r="A331" t="s">
         <v>3536</v>
       </c>
@@ -30131,7 +30662,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="28.8">
+    <row r="349" spans="1:2" ht="29">
       <c r="A349" t="s">
         <v>3570</v>
       </c>
@@ -30139,7 +30670,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="28.8">
+    <row r="350" spans="1:2" ht="29">
       <c r="A350" t="s">
         <v>3572</v>
       </c>
@@ -30283,7 +30814,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="28.8">
+    <row r="368" spans="1:2" ht="29">
       <c r="A368" t="s">
         <v>3606</v>
       </c>
@@ -30307,7 +30838,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="43.2">
+    <row r="371" spans="1:2" ht="43.5">
       <c r="A371" t="s">
         <v>3611</v>
       </c>
@@ -30339,7 +30870,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="28.8">
+    <row r="375" spans="1:2" ht="29">
       <c r="A375" t="s">
         <v>3617</v>
       </c>
@@ -30419,7 +30950,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="43.2">
+    <row r="385" spans="1:2" ht="43.5">
       <c r="A385" t="s">
         <v>3637</v>
       </c>
@@ -30491,7 +31022,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="28.8">
+    <row r="394" spans="1:2" ht="29">
       <c r="A394" t="s">
         <v>3661</v>
       </c>
@@ -30587,7 +31118,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="28.8">
+    <row r="406" spans="1:2" ht="29">
       <c r="A406" t="s">
         <v>3683</v>
       </c>
@@ -30707,7 +31238,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="43.2">
+    <row r="421" spans="1:2" ht="43.5">
       <c r="A421" t="s">
         <v>3712</v>
       </c>
@@ -30715,7 +31246,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="28.8">
+    <row r="422" spans="1:2" ht="29">
       <c r="A422" t="s">
         <v>3714</v>
       </c>
@@ -30795,7 +31326,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="28.8">
+    <row r="432" spans="1:2" ht="29">
       <c r="A432" t="s">
         <v>2024</v>
       </c>
@@ -30835,7 +31366,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="28.8">
+    <row r="437" spans="1:2" ht="29">
       <c r="A437" t="s">
         <v>3743</v>
       </c>
@@ -30939,7 +31470,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="28.8">
+    <row r="450" spans="1:3" ht="29">
       <c r="A450" t="s">
         <v>3767</v>
       </c>
@@ -31118,7 +31649,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="28.8">
+    <row r="472" spans="1:2" ht="29">
       <c r="A472" t="s">
         <v>3809</v>
       </c>
@@ -31222,7 +31753,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="28.8">
+    <row r="485" spans="1:2" ht="29">
       <c r="A485" t="s">
         <v>2692</v>
       </c>
@@ -31246,7 +31777,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="28.8">
+    <row r="488" spans="1:2" ht="29">
       <c r="A488" t="s">
         <v>3839</v>
       </c>
@@ -31470,7 +32001,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="28.8">
+    <row r="516" spans="1:2" ht="29">
       <c r="A516" t="s">
         <v>3895</v>
       </c>
@@ -31878,7 +32409,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="28.8">
+    <row r="567" spans="1:2" ht="29">
       <c r="A567" t="s">
         <v>4090</v>
       </c>
@@ -31980,6 +32511,254 @@
       </c>
       <c r="B579" t="s">
         <v>4135</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B580" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="29">
+      <c r="A581" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B582" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B583" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B584" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>297</v>
+      </c>
+      <c r="B585" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B587" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B588" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B590" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B591" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B592" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B593" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B594" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B596" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B597" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B598" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B599" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B600" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B601" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B602" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B603" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B604" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B605" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B606" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B607" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B608" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B609" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B610" t="s">
+        <v>4233</v>
       </c>
     </row>
   </sheetData>

--- a/harsh.xlsx
+++ b/harsh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE10BE2E-2A1C-4B82-A7A9-17D957D02122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF08387-CB1D-4D08-A959-680F0E12E666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="4241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4417" uniqueCount="4273">
   <si>
     <t>spurred</t>
   </si>
@@ -14040,6 +14040,102 @@
   </si>
   <si>
     <t>vt. 表明，表示；引起</t>
+  </si>
+  <si>
+    <t>imprudent</t>
+  </si>
+  <si>
+    <t>adj. 轻率的，鲁莽的；不小心的</t>
+  </si>
+  <si>
+    <t>fertility</t>
+  </si>
+  <si>
+    <t>n. 多产；肥沃；[农经] 生产力；丰饶</t>
+  </si>
+  <si>
+    <t>flabbergast</t>
+  </si>
+  <si>
+    <t>vt. 哑然失色；使大吃一惊</t>
+  </si>
+  <si>
+    <t>objection</t>
+  </si>
+  <si>
+    <t>n. 异议，反对；缺陷，缺点；妨碍；拒绝的理由</t>
+  </si>
+  <si>
+    <t>adj. 说奉承话的；阿谀的</t>
+  </si>
+  <si>
+    <t>dissident</t>
+  </si>
+  <si>
+    <t>n. 持不同政见者；异议分子；批评政府者</t>
+  </si>
+  <si>
+    <t>albeit</t>
+  </si>
+  <si>
+    <t>conj. 虽然，尽管</t>
+  </si>
+  <si>
+    <t>delineate</t>
+  </si>
+  <si>
+    <t>vt. 描绘；描写；画…的轮廓</t>
+  </si>
+  <si>
+    <t>haphazardly</t>
+  </si>
+  <si>
+    <t>adv. 偶然地，随意地；杂乱地</t>
+  </si>
+  <si>
+    <t>cachet</t>
+  </si>
+  <si>
+    <t>n. （证明品质的）优良标志；公务印章；私人印戳；标记；威望；纪念邮戳</t>
+  </si>
+  <si>
+    <t>certitude</t>
+  </si>
+  <si>
+    <t>n. 确信；确实</t>
+  </si>
+  <si>
+    <t>n. 威望，声望；声誉</t>
+  </si>
+  <si>
+    <t>propitiate</t>
+  </si>
+  <si>
+    <t>vt. 抚慰，安抚；与…和解</t>
+  </si>
+  <si>
+    <t>elated</t>
+  </si>
+  <si>
+    <t>adj. 兴高采烈的；得意洋洋的</t>
+  </si>
+  <si>
+    <t>gullible</t>
+  </si>
+  <si>
+    <t>adj. 易受骗的；轻信的</t>
+  </si>
+  <si>
+    <t>didacticism</t>
+  </si>
+  <si>
+    <t>n. 启蒙主义；教训主义；教训癖</t>
+  </si>
+  <si>
+    <t>a far cry from</t>
+  </si>
+  <si>
+    <t>与之相差甚远</t>
   </si>
 </sst>
 </file>
@@ -15133,10 +15229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD514"/>
+  <dimension ref="A1:XFD517"/>
   <sheetViews>
-    <sheetView topLeftCell="A478" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A493" sqref="A493"/>
+    <sheetView topLeftCell="A489" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B517" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19199,6 +19295,30 @@
         <v>4114</v>
       </c>
     </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B515" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B517" t="s">
+        <v>4270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19207,10 +19327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E920BA49-E4B4-47FC-A950-86C5CCE2F1FC}">
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B494" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B525" sqref="B525"/>
+    <sheetView topLeftCell="B405" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23417,6 +23537,54 @@
       </c>
       <c r="B525" t="s">
         <v>4240</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B526" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B527" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B528" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B529" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B530" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B531" t="s">
+        <v>4255</v>
       </c>
     </row>
   </sheetData>
@@ -23432,8 +23600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F26FD-E856-40B6-82AA-B45B8124E039}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView topLeftCell="A522" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B551" sqref="B551"/>
+    <sheetView topLeftCell="A80" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27859,10 +28027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CE956-A94B-446A-8DB0-7B0E7916BB98}">
-  <dimension ref="A1:C610"/>
+  <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412"/>
+    <sheetView tabSelected="1" topLeftCell="B589" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B618" sqref="B618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -32759,6 +32927,70 @@
       </c>
       <c r="B610" t="s">
         <v>4233</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B611" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B612" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B613" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B614" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B615" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B616" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B617" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B618" t="s">
+        <v>4272</v>
       </c>
     </row>
   </sheetData>
